--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC1358-4111-4295-83D9-B2C532377B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99658074-9618-4D47-B509-0B46391B284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
     <sheet name="hyperparameter" sheetId="2" r:id="rId2"/>
     <sheet name="hyperparameter2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
   <si>
     <t>Model 1</t>
   </si>
@@ -228,13 +229,16 @@
   </si>
   <si>
     <t>Best Params: yolov8m.pt, 240, Adam, 0.0001, 64, 0.0005, 0.937, 200</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +264,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF47D359"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -378,11 +394,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -433,21 +585,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,15 +609,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,24 +1212,24 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="M3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="21"/>
@@ -1090,7 +1301,7 @@
       <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="26">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -1135,7 +1346,7 @@
       <c r="I6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="23">
         <v>416</v>
       </c>
@@ -1168,7 +1379,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="24"/>
       <c r="M7" s="3">
         <v>172</v>
@@ -1199,7 +1410,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="24"/>
       <c r="M8" s="3">
         <v>116</v>
@@ -1230,7 +1441,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="24"/>
       <c r="M9" s="7">
         <v>143</v>
@@ -1261,7 +1472,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="24"/>
       <c r="M10" s="3">
         <v>195</v>
@@ -1294,7 +1505,7 @@
       <c r="I11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="24"/>
       <c r="M11" s="3">
         <v>67</v>
@@ -1325,7 +1536,7 @@
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="24"/>
       <c r="M12" s="3">
         <v>115</v>
@@ -1358,7 +1569,7 @@
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="24"/>
       <c r="M13" s="3">
         <v>159</v>
@@ -1391,7 +1602,7 @@
       <c r="I14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="25"/>
       <c r="M14" s="3">
         <v>172</v>
@@ -1410,21 +1621,29 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -1434,14 +1653,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1451,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB8005-5696-4015-A771-D6400CC063DD}">
   <dimension ref="A4:BV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="120" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1678,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="22"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="27" t="s">
         <v>22</v>
       </c>
@@ -1487,7 +1698,7 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="22"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1535,22 +1746,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="26">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="26">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -1576,16 +1787,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -1609,16 +1820,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -1632,36 +1843,36 @@
         <v>0.88134999999999997</v>
       </c>
     </row>
-    <row r="9" spans="4:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="31">
+    <row r="9" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="31">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="31" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="33">
+      <c r="L9" s="26"/>
+      <c r="M9" s="3">
         <v>150</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="3">
         <v>0.86726000000000003</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="3">
         <v>78</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="3">
         <v>0.88275000000000003</v>
       </c>
     </row>
@@ -1675,16 +1886,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="22"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -1708,16 +1919,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -1741,16 +1952,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="22"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -1774,16 +1985,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -1807,16 +2018,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="22"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -1830,41 +2041,41 @@
         <v>0.88134999999999997</v>
       </c>
     </row>
-    <row r="15" spans="4:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="31">
+    <row r="15" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="31">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="31" t="s">
+      <c r="J15" s="26"/>
+      <c r="K15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="33">
+      <c r="L15" s="26"/>
+      <c r="M15" s="3">
         <v>130</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="3">
         <v>0.86785999999999996</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="3">
         <v>78</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="3">
         <v>0.88275000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="22"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="27" t="s">
         <v>22</v>
       </c>
@@ -1883,7 +2094,7 @@
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="22"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
@@ -2135,32 +2346,32 @@
       <c r="BU23"/>
       <c r="BV23"/>
     </row>
-    <row r="24" spans="1:74" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="31">
+    <row r="24" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
         <v>6</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="4">
         <v>256</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="31">
+      <c r="I24" s="4">
         <v>64</v>
       </c>
       <c r="J24" s="24"/>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L24" s="24"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3">
         <v>178</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="3">
         <v>0.88748000000000005</v>
       </c>
     </row>
@@ -2310,4 +2521,1115 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87B3C22-B1D8-4A1D-8A98-F695002041FD}">
+  <dimension ref="E4:AA28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7:Z7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="38"/>
+    </row>
+    <row r="6" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="38"/>
+      <c r="O6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="38"/>
+      <c r="S6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="38"/>
+      <c r="X6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="32"/>
+    </row>
+    <row r="7" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="36">
+        <v>240</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="39">
+        <v>1E-4</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="31">
+        <v>16</v>
+      </c>
+      <c r="M7" s="39">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N7" s="40"/>
+      <c r="O7" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39">
+        <v>200</v>
+      </c>
+      <c r="R7" s="40"/>
+      <c r="S7" s="31">
+        <v>83</v>
+      </c>
+      <c r="T7" s="36">
+        <v>0.86</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="36">
+        <v>16</v>
+      </c>
+      <c r="W7" s="38"/>
+      <c r="X7" s="36">
+        <v>0.88061</v>
+      </c>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="32"/>
+    </row>
+    <row r="8" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="36">
+        <v>240</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="31">
+        <v>16</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="31">
+        <v>199</v>
+      </c>
+      <c r="T8" s="36">
+        <v>0.875</v>
+      </c>
+      <c r="U8" s="38"/>
+      <c r="V8" s="36">
+        <v>150</v>
+      </c>
+      <c r="W8" s="38"/>
+      <c r="X8" s="36">
+        <v>0.87702999999999998</v>
+      </c>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="32"/>
+    </row>
+    <row r="9" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="36">
+        <v>240</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="31">
+        <v>32</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="31">
+        <v>103</v>
+      </c>
+      <c r="T9" s="36">
+        <v>0.875</v>
+      </c>
+      <c r="U9" s="38"/>
+      <c r="V9" s="36">
+        <v>85</v>
+      </c>
+      <c r="W9" s="38"/>
+      <c r="X9" s="36">
+        <v>0.88134999999999997</v>
+      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="32"/>
+    </row>
+    <row r="10" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="36">
+        <v>240</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="31">
+        <v>32</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="31">
+        <v>150</v>
+      </c>
+      <c r="T10" s="36">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="U10" s="38"/>
+      <c r="V10" s="36">
+        <v>78</v>
+      </c>
+      <c r="W10" s="38"/>
+      <c r="X10" s="36">
+        <v>0.88275000000000003</v>
+      </c>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="32"/>
+    </row>
+    <row r="11" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="36">
+        <v>240</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="31">
+        <v>64</v>
+      </c>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="31">
+        <v>199</v>
+      </c>
+      <c r="T11" s="36">
+        <v>0.874</v>
+      </c>
+      <c r="U11" s="38"/>
+      <c r="V11" s="36">
+        <v>147</v>
+      </c>
+      <c r="W11" s="38"/>
+      <c r="X11" s="36">
+        <v>0.87795000000000001</v>
+      </c>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="32"/>
+    </row>
+    <row r="12" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="36">
+        <v>240</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="31">
+        <v>64</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="31">
+        <v>114</v>
+      </c>
+      <c r="T12" s="36">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="U12" s="38"/>
+      <c r="V12" s="36">
+        <v>59</v>
+      </c>
+      <c r="W12" s="38"/>
+      <c r="X12" s="36">
+        <v>0.87651000000000001</v>
+      </c>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="32"/>
+    </row>
+    <row r="13" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="36">
+        <v>256</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="31">
+        <v>16</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="31">
+        <v>83</v>
+      </c>
+      <c r="T13" s="36">
+        <v>0.86</v>
+      </c>
+      <c r="U13" s="38"/>
+      <c r="V13" s="36">
+        <v>16</v>
+      </c>
+      <c r="W13" s="38"/>
+      <c r="X13" s="36">
+        <v>0.88161</v>
+      </c>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="32"/>
+    </row>
+    <row r="14" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="36">
+        <v>256</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="31">
+        <v>16</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="31">
+        <v>199</v>
+      </c>
+      <c r="T14" s="36">
+        <v>0.875</v>
+      </c>
+      <c r="U14" s="38"/>
+      <c r="V14" s="36">
+        <v>150</v>
+      </c>
+      <c r="W14" s="38"/>
+      <c r="X14" s="36">
+        <v>0.87702999999999998</v>
+      </c>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="32"/>
+    </row>
+    <row r="15" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="36">
+        <v>256</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="31">
+        <v>32</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="31">
+        <v>103</v>
+      </c>
+      <c r="T15" s="36">
+        <v>0.875</v>
+      </c>
+      <c r="U15" s="38"/>
+      <c r="V15" s="36">
+        <v>85</v>
+      </c>
+      <c r="W15" s="38"/>
+      <c r="X15" s="36">
+        <v>0.88134999999999997</v>
+      </c>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="32"/>
+    </row>
+    <row r="16" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="36">
+        <v>256</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="31">
+        <v>32</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="31">
+        <v>130</v>
+      </c>
+      <c r="T16" s="36">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="U16" s="38"/>
+      <c r="V16" s="36">
+        <v>78</v>
+      </c>
+      <c r="W16" s="38"/>
+      <c r="X16" s="36">
+        <v>0.88275000000000003</v>
+      </c>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="32"/>
+    </row>
+    <row r="17" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="45"/>
+    </row>
+    <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="38"/>
+      <c r="P18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="38"/>
+      <c r="U18" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="38"/>
+      <c r="W18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="45"/>
+    </row>
+    <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="31">
+        <v>240</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39">
+        <v>1E-4</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="36">
+        <v>16</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O19" s="40"/>
+      <c r="P19" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="47">
+        <v>200</v>
+      </c>
+      <c r="S19" s="36"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="36">
+        <v>24</v>
+      </c>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="31">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="45"/>
+    </row>
+    <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="31">
+        <v>240</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="36">
+        <v>16</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="36">
+        <v>38</v>
+      </c>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="31">
+        <v>0.88602999999999998</v>
+      </c>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="45"/>
+    </row>
+    <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="31">
+        <v>240</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="36">
+        <v>32</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="36">
+        <v>168</v>
+      </c>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="31">
+        <v>0.88941999999999999</v>
+      </c>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="45"/>
+    </row>
+    <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="31">
+        <v>240</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="36">
+        <v>32</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="36">
+        <v>29</v>
+      </c>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="31">
+        <v>0.88482000000000005</v>
+      </c>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="45"/>
+    </row>
+    <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="35">
+        <v>240</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="50">
+        <v>64</v>
+      </c>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="50">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="50">
+        <v>65</v>
+      </c>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="35">
+        <v>0.88971</v>
+      </c>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="45"/>
+    </row>
+    <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="31">
+        <v>256</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="36">
+        <v>64</v>
+      </c>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="36">
+        <v>178</v>
+      </c>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="31">
+        <v>0.88748000000000005</v>
+      </c>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="45"/>
+    </row>
+    <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="31">
+        <v>256</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="36">
+        <v>16</v>
+      </c>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="36">
+        <v>24</v>
+      </c>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="31">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="45"/>
+    </row>
+    <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="31">
+        <v>256</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="36">
+        <v>16</v>
+      </c>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="36">
+        <v>38</v>
+      </c>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="31">
+        <v>0.88602999999999998</v>
+      </c>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="45"/>
+    </row>
+    <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="31">
+        <v>256</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="36">
+        <v>32</v>
+      </c>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="36">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="36">
+        <v>29</v>
+      </c>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="31">
+        <v>0.87646000000000002</v>
+      </c>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="45"/>
+    </row>
+    <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="31">
+        <v>256</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="36">
+        <v>32</v>
+      </c>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="36">
+        <v>70</v>
+      </c>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="31">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="141">
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="G19:H28"/>
+    <mergeCell ref="I19:J28"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:R28"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I16"/>
+    <mergeCell ref="J7:K16"/>
+    <mergeCell ref="M7:N16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R16"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\DOKUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99658074-9618-4D47-B509-0B46391B284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E050521-E64D-4D2A-84B4-64132261BB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +281,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -567,8 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -582,24 +574,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,75 +619,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1031,18 +1034,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="5"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="21" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="K2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
@@ -1085,27 +1088,27 @@
       </c>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="55">
         <v>175</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="55">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="55">
         <v>125</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="55">
         <v>0.83</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="14">
+      <c r="J5" s="51"/>
+      <c r="K5" s="55">
         <v>0.83899999999999997</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1158,13 +1161,13 @@
       </c>
     </row>
     <row r="9" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
@@ -1173,8 +1176,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F24B3-4B99-49F3-AA16-7769F65F4673}">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="E1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1214,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1235,7 @@
       <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1295,7 @@
       <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="27">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1327,27 +1330,27 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="23">
+      <c r="K6" s="27">
         <v>416</v>
       </c>
       <c r="M6" s="3">
@@ -1370,17 +1373,17 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23">
+      <c r="C7" s="29"/>
+      <c r="D7" s="27">
         <v>256</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="28"/>
       <c r="M7" s="3">
         <v>172</v>
       </c>
@@ -1404,14 +1407,14 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="28"/>
       <c r="M8" s="3">
         <v>116</v>
       </c>
@@ -1435,14 +1438,14 @@
       <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="24"/>
+      <c r="K9" s="28"/>
       <c r="M9" s="7">
         <v>143</v>
       </c>
@@ -1466,14 +1469,14 @@
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
+      <c r="K10" s="28"/>
       <c r="M10" s="3">
         <v>195</v>
       </c>
@@ -1494,19 +1497,19 @@
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="26"/>
-      <c r="K11" s="24"/>
+      <c r="K11" s="28"/>
       <c r="M11" s="3">
         <v>67</v>
       </c>
@@ -1527,17 +1530,17 @@
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="28"/>
       <c r="M12" s="3">
         <v>115</v>
       </c>
@@ -1558,19 +1561,19 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23">
+      <c r="F13" s="28"/>
+      <c r="G13" s="27">
         <v>16</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="24"/>
+      <c r="K13" s="28"/>
       <c r="M13" s="3">
         <v>159</v>
       </c>
@@ -1591,19 +1594,19 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="26"/>
-      <c r="K14" s="25"/>
+      <c r="K14" s="29"/>
       <c r="M14" s="3">
         <v>172</v>
       </c>
@@ -1621,29 +1624,21 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -1653,6 +1648,14 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1679,22 +1682,22 @@
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="27" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="33"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,7 +1743,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="4">
@@ -1781,7 +1784,7 @@
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="4">
@@ -1814,7 +1817,7 @@
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="4">
@@ -1847,7 +1850,7 @@
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="4">
@@ -1880,7 +1883,7 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="4">
@@ -1913,7 +1916,7 @@
       <c r="D11" s="4">
         <v>6</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="4">
@@ -1946,7 +1949,7 @@
       <c r="D12" s="4">
         <v>7</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="4">
@@ -1979,7 +1982,7 @@
       <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="4">
@@ -2012,7 +2015,7 @@
       <c r="D14" s="4">
         <v>9</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="4">
@@ -2045,7 +2048,7 @@
       <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="4">
@@ -2076,22 +2079,22 @@
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D17" s="26"/>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="27" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D18" s="26"/>
@@ -2136,28 +2139,28 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="4">
         <v>240</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="27">
         <v>1E-4</v>
       </c>
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="27">
         <v>200</v>
       </c>
       <c r="M19" s="3"/>
@@ -2173,22 +2176,22 @@
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="4">
         <v>240</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
@@ -2202,22 +2205,22 @@
       <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="4">
         <v>240</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="4">
         <v>32</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
@@ -2231,22 +2234,22 @@
       <c r="D22" s="4">
         <v>4</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="4">
         <v>240</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="4">
         <v>32</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
@@ -2263,22 +2266,22 @@
       <c r="D23" s="12">
         <v>5</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="12">
         <v>240</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="12">
         <v>64</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="12">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7">
@@ -2350,22 +2353,22 @@
       <c r="D24" s="4">
         <v>6</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="4">
         <v>256</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="4">
         <v>64</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
@@ -2379,22 +2382,22 @@
       <c r="D25" s="4">
         <v>7</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="4">
         <v>256</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="4">
         <v>16</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3">
@@ -2408,22 +2411,22 @@
       <c r="D26" s="4">
         <v>8</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="4">
         <v>256</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="4">
         <v>16</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="28"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
@@ -2437,22 +2440,22 @@
       <c r="D27" s="4">
         <v>9</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="4">
         <v>256</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="4">
         <v>32</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L27" s="24"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3">
@@ -2466,22 +2469,22 @@
       <c r="D28" s="4">
         <v>10</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="4">
         <v>256</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="4">
         <v>32</v>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="25"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3">
@@ -2492,7 +2495,7 @@
       </c>
     </row>
     <row r="32" spans="1:74" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2527,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87B3C22-B1D8-4A1D-8A98-F695002041FD}">
   <dimension ref="E4:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7:Z7"/>
     </sheetView>
   </sheetViews>
@@ -2535,1032 +2538,1009 @@
   <sheetData>
     <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="36" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="38"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="36" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="31" t="s">
+      <c r="K6" s="36"/>
+      <c r="L6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="36" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="36" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="31" t="s">
+      <c r="R6" s="36"/>
+      <c r="S6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="36" t="s">
+      <c r="U6" s="36"/>
+      <c r="V6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="38"/>
-      <c r="X6" s="36" t="s">
+      <c r="W6" s="36"/>
+      <c r="X6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="32"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>240</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="39">
+      <c r="I7" s="43"/>
+      <c r="J7" s="42">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="31">
+      <c r="K7" s="43"/>
+      <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="42">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="36">
+      <c r="N7" s="43"/>
+      <c r="O7" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="42">
         <v>200</v>
       </c>
-      <c r="R7" s="40"/>
-      <c r="S7" s="31">
+      <c r="R7" s="43"/>
+      <c r="S7" s="20">
         <v>83</v>
       </c>
-      <c r="T7" s="36">
+      <c r="T7" s="34">
         <v>0.86</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="36">
+      <c r="U7" s="36"/>
+      <c r="V7" s="34">
         <v>16</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="36">
+      <c r="W7" s="36"/>
+      <c r="X7" s="34">
         <v>0.88061</v>
       </c>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="32"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <v>240</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="31">
+      <c r="G8" s="36"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="36" t="s">
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="31">
+      <c r="P8" s="36"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="20">
         <v>199</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="34">
         <v>0.875</v>
       </c>
-      <c r="U8" s="38"/>
-      <c r="V8" s="36">
+      <c r="U8" s="36"/>
+      <c r="V8" s="34">
         <v>150</v>
       </c>
-      <c r="W8" s="38"/>
-      <c r="X8" s="36">
+      <c r="W8" s="36"/>
+      <c r="X8" s="34">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="32"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="34">
         <v>240</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="31">
+      <c r="G9" s="36"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="36">
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="31">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="20">
         <v>103</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="34">
         <v>0.875</v>
       </c>
-      <c r="U9" s="38"/>
-      <c r="V9" s="36">
+      <c r="U9" s="36"/>
+      <c r="V9" s="34">
         <v>85</v>
       </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="36">
+      <c r="W9" s="36"/>
+      <c r="X9" s="34">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="32"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="34">
         <v>240</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="31">
+      <c r="G10" s="36"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="36" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="31">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="20">
         <v>150</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="34">
         <v>0.86699999999999999</v>
       </c>
-      <c r="U10" s="38"/>
-      <c r="V10" s="36">
+      <c r="U10" s="36"/>
+      <c r="V10" s="34">
         <v>78</v>
       </c>
-      <c r="W10" s="38"/>
-      <c r="X10" s="36">
+      <c r="W10" s="36"/>
+      <c r="X10" s="34">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="32"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <v>240</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="31">
+      <c r="G11" s="36"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="36">
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="31">
+      <c r="P11" s="36"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="20">
         <v>199</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="34">
         <v>0.874</v>
       </c>
-      <c r="U11" s="38"/>
-      <c r="V11" s="36">
+      <c r="U11" s="36"/>
+      <c r="V11" s="34">
         <v>147</v>
       </c>
-      <c r="W11" s="38"/>
-      <c r="X11" s="36">
+      <c r="W11" s="36"/>
+      <c r="X11" s="34">
         <v>0.87795000000000001</v>
       </c>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="32"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="34">
         <v>240</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="31">
+      <c r="G12" s="36"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="36" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="31">
+      <c r="P12" s="36"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="20">
         <v>114</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="34">
         <v>0.85899999999999999</v>
       </c>
-      <c r="U12" s="38"/>
-      <c r="V12" s="36">
+      <c r="U12" s="36"/>
+      <c r="V12" s="34">
         <v>59</v>
       </c>
-      <c r="W12" s="38"/>
-      <c r="X12" s="36">
+      <c r="W12" s="36"/>
+      <c r="X12" s="34">
         <v>0.87651000000000001</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="32"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="34">
         <v>256</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="31">
+      <c r="G13" s="36"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="36">
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="31">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="20">
         <v>83</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="34">
         <v>0.86</v>
       </c>
-      <c r="U13" s="38"/>
-      <c r="V13" s="36">
+      <c r="U13" s="36"/>
+      <c r="V13" s="34">
         <v>16</v>
       </c>
-      <c r="W13" s="38"/>
-      <c r="X13" s="36">
+      <c r="W13" s="36"/>
+      <c r="X13" s="34">
         <v>0.88161</v>
       </c>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="32"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="34">
         <v>256</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="31">
+      <c r="G14" s="36"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="36" t="s">
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="31">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="20">
         <v>199</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="34">
         <v>0.875</v>
       </c>
-      <c r="U14" s="38"/>
-      <c r="V14" s="36">
+      <c r="U14" s="36"/>
+      <c r="V14" s="34">
         <v>150</v>
       </c>
-      <c r="W14" s="38"/>
-      <c r="X14" s="36">
+      <c r="W14" s="36"/>
+      <c r="X14" s="34">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="32"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="21"/>
     </row>
     <row r="15" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="34">
         <v>256</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="31">
+      <c r="G15" s="36"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="36">
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="31">
+      <c r="P15" s="36"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="20">
         <v>103</v>
       </c>
-      <c r="T15" s="36">
+      <c r="T15" s="34">
         <v>0.875</v>
       </c>
-      <c r="U15" s="38"/>
-      <c r="V15" s="36">
+      <c r="U15" s="36"/>
+      <c r="V15" s="34">
         <v>85</v>
       </c>
-      <c r="W15" s="38"/>
-      <c r="X15" s="36">
+      <c r="W15" s="36"/>
+      <c r="X15" s="34">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="32"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="34">
         <v>256</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="31">
+      <c r="G16" s="36"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="36" t="s">
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="31">
+      <c r="P16" s="36"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="20">
         <v>130</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="34">
         <v>0.86799999999999999</v>
       </c>
-      <c r="U16" s="38"/>
-      <c r="V16" s="36">
+      <c r="U16" s="36"/>
+      <c r="V16" s="34">
         <v>78</v>
       </c>
-      <c r="W16" s="38"/>
-      <c r="X16" s="36">
+      <c r="W16" s="36"/>
+      <c r="X16" s="34">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="32"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="36" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="45"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="38"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="36"/>
+      <c r="I18" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="36" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="36" t="s">
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="38"/>
-      <c r="P18" s="36" t="s">
+      <c r="O18" s="36"/>
+      <c r="P18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="31" t="s">
+      <c r="Q18" s="36"/>
+      <c r="R18" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="36" t="s">
+      <c r="T18" s="36"/>
+      <c r="U18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="38"/>
-      <c r="W18" s="36" t="s">
+      <c r="V18" s="36"/>
+      <c r="W18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="31" t="s">
+      <c r="X18" s="36"/>
+      <c r="Y18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="45"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="38"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="39">
+      <c r="H19" s="43"/>
+      <c r="I19" s="42">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="36">
+      <c r="J19" s="43"/>
+      <c r="K19" s="34">
         <v>16</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39">
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="42">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="40"/>
-      <c r="P19" s="36">
+      <c r="O19" s="43"/>
+      <c r="P19" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="47">
+      <c r="Q19" s="36"/>
+      <c r="R19" s="48">
         <v>200</v>
       </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="36">
+      <c r="S19" s="34"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="34">
         <v>24</v>
       </c>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="31">
+      <c r="X19" s="36"/>
+      <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="45"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="38"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="36">
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="34">
         <v>16</v>
       </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="36" t="s">
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="36">
+      <c r="Q20" s="36"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="34">
         <v>38</v>
       </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="31">
+      <c r="X20" s="36"/>
+      <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="45"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="38"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="36">
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="34">
         <v>32</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="36">
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="36">
+      <c r="Q21" s="36"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="34">
         <v>168</v>
       </c>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="31">
+      <c r="X21" s="36"/>
+      <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="45"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="38"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="36">
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="34">
         <v>32</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="36" t="s">
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="36">
+      <c r="Q22" s="36"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="34">
         <v>29</v>
       </c>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="31">
+      <c r="X22" s="36"/>
+      <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="45"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="38"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="50">
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="39">
         <v>64</v>
       </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="50">
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="39">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="50">
+      <c r="Q23" s="41"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="39">
         <v>65</v>
       </c>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="35">
+      <c r="X23" s="41"/>
+      <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="45"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="38"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="36">
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="34">
         <v>64</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="36" t="s">
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="36">
+      <c r="Q24" s="36"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="34">
         <v>178</v>
       </c>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="31">
+      <c r="X24" s="36"/>
+      <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="45"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="38"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="36">
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="34">
         <v>16</v>
       </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="36">
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="36">
+      <c r="Q25" s="36"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="34">
         <v>24</v>
       </c>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="31">
+      <c r="X25" s="36"/>
+      <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="45"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="38"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="36">
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="34">
         <v>16</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="36" t="s">
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="36">
+      <c r="Q26" s="36"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="34">
         <v>38</v>
       </c>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="31">
+      <c r="X26" s="36"/>
+      <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="45"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="38"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="36">
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="34">
         <v>32</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="36">
+      <c r="L27" s="35"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="34">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="36">
+      <c r="Q27" s="36"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="34">
         <v>29</v>
       </c>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="31">
+      <c r="X27" s="36"/>
+      <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="45"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="38"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="36">
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="34">
         <v>32</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="36" t="s">
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="36">
+      <c r="Q28" s="36"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="34">
         <v>70</v>
       </c>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="31">
+      <c r="X28" s="36"/>
+      <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="45"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="G19:H28"/>
-    <mergeCell ref="I19:J28"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O28"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I16"/>
+    <mergeCell ref="J7:K16"/>
+    <mergeCell ref="M7:N16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R16"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="T16:U16"/>
@@ -3579,56 +3559,79 @@
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="V15:W15"/>
     <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I16"/>
-    <mergeCell ref="J7:K16"/>
-    <mergeCell ref="M7:N16"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R16"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="G19:H28"/>
+    <mergeCell ref="I19:J28"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:R28"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E050521-E64D-4D2A-84B4-64132261BB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E4D71-57A4-45A7-860F-1804C2EA1157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
   <si>
     <t>Model 1</t>
   </si>
@@ -60,9 +60,6 @@
     <t>mAP epoch</t>
   </si>
   <si>
-    <t>mAP final</t>
-  </si>
-  <si>
     <t>Vali</t>
   </si>
   <si>
@@ -232,6 +229,45 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>mobil</t>
+  </si>
+  <si>
+    <t>orang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sepatu </t>
+  </si>
+  <si>
+    <t>tas</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>model 1</t>
+  </si>
+  <si>
+    <t>model 2</t>
+  </si>
+  <si>
+    <t>model 3</t>
+  </si>
+  <si>
+    <t>model 4</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
   </si>
 </sst>
 </file>
@@ -528,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,8 +631,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,8 +652,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,21 +671,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +691,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,17 +706,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,6 +731,1145 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Grafik pelatihan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ID" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Best Epoch</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'model awal'!$E$14:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model awal'!$F$14:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3BF-4BB6-BF2F-7574415862B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1202061983"/>
+        <c:axId val="1202062463"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mAP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'model awal'!$E$14:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'model awal'!$G$14:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3BF-4BB6-BF2F-7574415862B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1201251039"/>
+        <c:axId val="1201253439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1202061983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202062463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1202062463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202061983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1201253439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201251039"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1201251039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201253439"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Bagan 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D1F777-8F1C-C4AB-D7D5-74374975203C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
-  <dimension ref="E2:M10"/>
+  <dimension ref="E2:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1033,21 +2207,21 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="52" t="s">
+    <row r="2" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="K2" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>5</v>
@@ -1056,18 +2230,39 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1077,42 +2272,87 @@
       <c r="G4" s="5">
         <v>0.81599999999999995</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="5">
+        <v>200</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.81599999999999995</v>
+      </c>
       <c r="K4" s="5">
         <v>0.82099999999999995</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>175</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H5" s="5">
+        <v>125</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="55">
-        <v>175</v>
-      </c>
-      <c r="G5" s="55">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="H5" s="55">
-        <v>125</v>
-      </c>
-      <c r="I5" s="55">
-        <v>0.83</v>
-      </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="55">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="6" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1133,10 +2373,31 @@
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
@@ -1157,21 +2418,155 @@
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="9" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="P9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="5:22" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="S10" s="54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="P11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="S11" s="54">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="P12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="S12" s="54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="S13" s="54">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>200</v>
+      </c>
+      <c r="G14" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>125</v>
+      </c>
+      <c r="G15" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>145</v>
+      </c>
+      <c r="G17" s="1">
+        <v>83.8</v>
       </c>
     </row>
   </sheetData>
@@ -1181,6 +2576,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1215,68 +2612,68 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="M3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="Q4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -1284,27 +2681,27 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>640</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="30">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="27">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="26">
+        <v>30</v>
+      </c>
+      <c r="J5" s="33">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -1314,7 +2711,7 @@
         <v>168</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="6">
         <v>4655</v>
@@ -1323,41 +2720,41 @@
         <v>118</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>34</v>
+      <c r="C6" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27" t="s">
+      <c r="E6" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27">
+      <c r="J6" s="33"/>
+      <c r="K6" s="30">
         <v>416</v>
       </c>
       <c r="M6" s="3">
         <v>173</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="6">
         <v>1352</v>
@@ -1366,29 +2763,29 @@
         <v>123</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27">
+      <c r="C7" s="32"/>
+      <c r="D7" s="30">
         <v>256</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="28"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31"/>
       <c r="M7" s="3">
         <v>172</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" s="6">
         <v>1375</v>
@@ -1397,7 +2794,7 @@
         <v>122</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -1405,21 +2802,21 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="31"/>
       <c r="M8" s="3">
         <v>116</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="6">
         <v>1010</v>
@@ -1428,7 +2825,7 @@
         <v>66</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -1436,21 +2833,21 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="31"/>
       <c r="M9" s="7">
         <v>143</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="8">
         <v>1407</v>
@@ -1459,7 +2856,7 @@
         <v>93</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -1467,21 +2864,21 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
+        <v>46</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="31"/>
       <c r="M10" s="3">
         <v>195</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" s="6">
         <v>2665</v>
@@ -1490,95 +2887,95 @@
         <v>145</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31"/>
       <c r="M11" s="3">
         <v>67</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" s="3">
         <v>17</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="28"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31"/>
       <c r="M12" s="3">
         <v>115</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="P12" s="3">
         <v>65</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27">
+        <v>35</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30">
         <v>16</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="28"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="31"/>
       <c r="M13" s="3">
         <v>159</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13" s="6">
         <v>1232</v>
@@ -1587,31 +2984,31 @@
         <v>109</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="29"/>
+        <v>37</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="32"/>
       <c r="M14" s="3">
         <v>172</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="6">
         <v>1331</v>
@@ -1624,21 +3021,29 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -1648,14 +3053,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1681,62 +3078,62 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="26"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="31" t="s">
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="33"/>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="33"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="26"/>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1744,27 +3141,27 @@
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="G6" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="33">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="33">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="33">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -1785,21 +3182,21 @@
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="L7" s="33"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -1818,21 +3215,21 @@
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -1851,21 +3248,21 @@
         <v>4</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="L9" s="33"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -1884,21 +3281,21 @@
         <v>5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -1917,21 +3314,21 @@
         <v>6</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="L11" s="33"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -1950,21 +3347,21 @@
         <v>7</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -1983,21 +3380,21 @@
         <v>8</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="L13" s="33"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -2016,21 +3413,21 @@
         <v>9</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -2049,21 +3446,21 @@
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="26"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="L15" s="33"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -2078,61 +3475,61 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="26"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="31" t="s">
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="33"/>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-    </row>
-    <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="26"/>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="P18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
@@ -2140,27 +3537,27 @@
         <v>1</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4">
         <v>240</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="27">
+      <c r="G19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="30">
         <v>1E-4</v>
       </c>
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="30">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="30">
         <v>200</v>
       </c>
       <c r="M19" s="3"/>
@@ -2177,21 +3574,21 @@
         <v>2</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4">
         <v>240</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="L20" s="31"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3">
@@ -2206,21 +3603,21 @@
         <v>3</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="4">
         <v>240</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="4">
         <v>32</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
@@ -2235,21 +3632,21 @@
         <v>4</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4">
         <v>240</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="4">
         <v>32</v>
       </c>
-      <c r="J22" s="28"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="L22" s="31"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3">
@@ -2267,21 +3664,21 @@
         <v>5</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="12">
         <v>240</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="12">
         <v>64</v>
       </c>
-      <c r="J23" s="28"/>
+      <c r="J23" s="31"/>
       <c r="K23" s="12">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L23" s="28"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7">
@@ -2354,21 +3751,21 @@
         <v>6</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4">
         <v>256</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="4">
         <v>64</v>
       </c>
-      <c r="J24" s="28"/>
+      <c r="J24" s="31"/>
       <c r="K24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="L24" s="31"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3">
@@ -2383,21 +3780,21 @@
         <v>7</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="4">
         <v>256</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="4">
         <v>16</v>
       </c>
-      <c r="J25" s="28"/>
+      <c r="J25" s="31"/>
       <c r="K25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L25" s="28"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3">
@@ -2412,21 +3809,21 @@
         <v>8</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="4">
         <v>256</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="4">
         <v>16</v>
       </c>
-      <c r="J26" s="28"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="L26" s="31"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
@@ -2441,21 +3838,21 @@
         <v>9</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="4">
         <v>256</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="4">
         <v>32</v>
       </c>
-      <c r="J27" s="28"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L27" s="28"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3">
@@ -2470,21 +3867,21 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="4">
         <v>256</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="4">
         <v>32</v>
       </c>
-      <c r="J28" s="29"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="29"/>
+        <v>47</v>
+      </c>
+      <c r="L28" s="32"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3">
@@ -2496,12 +3893,12 @@
     </row>
     <row r="32" spans="1:74" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H32" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2530,978 +3927,1073 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87B3C22-B1D8-4A1D-8A98-F695002041FD}">
   <dimension ref="E4:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:Z7"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="36"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="39"/>
     </row>
     <row r="6" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="34" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="34" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="39"/>
+      <c r="S6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="20" t="s">
+      <c r="T6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="U6" s="39"/>
+      <c r="V6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="36"/>
-      <c r="V6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="36"/>
-      <c r="X6" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="36"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="34">
+        <v>60</v>
+      </c>
+      <c r="F7" s="37">
         <v>240</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="42">
+      <c r="G7" s="39"/>
+      <c r="H7" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="41"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="40">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="34">
+      <c r="N7" s="41"/>
+      <c r="O7" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="42">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40">
         <v>200</v>
       </c>
-      <c r="R7" s="43"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="37">
         <v>0.86</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="34">
+      <c r="U7" s="39"/>
+      <c r="V7" s="37">
         <v>16</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="34">
+      <c r="W7" s="39"/>
+      <c r="X7" s="37">
         <v>0.88061</v>
       </c>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="36"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="39"/>
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="34">
+        <v>33</v>
+      </c>
+      <c r="F8" s="37">
         <v>240</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="45"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="43"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
-      <c r="T8" s="34">
+      <c r="T8" s="37">
         <v>0.875</v>
       </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="34">
+      <c r="U8" s="39"/>
+      <c r="V8" s="37">
         <v>150</v>
       </c>
-      <c r="W8" s="36"/>
-      <c r="X8" s="34">
+      <c r="W8" s="39"/>
+      <c r="X8" s="37">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="36"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="39"/>
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="34">
+        <v>44</v>
+      </c>
+      <c r="F9" s="37">
         <v>240</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="34">
+      <c r="M9" s="42"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="45"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="37">
         <v>0.875</v>
       </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="34">
+      <c r="U9" s="39"/>
+      <c r="V9" s="37">
         <v>85</v>
       </c>
-      <c r="W9" s="36"/>
-      <c r="X9" s="34">
+      <c r="W9" s="39"/>
+      <c r="X9" s="37">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="36"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="39"/>
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="34">
+        <v>46</v>
+      </c>
+      <c r="F10" s="37">
         <v>240</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="43"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="37">
         <v>0.86699999999999999</v>
       </c>
-      <c r="U10" s="36"/>
-      <c r="V10" s="34">
+      <c r="U10" s="39"/>
+      <c r="V10" s="37">
         <v>78</v>
       </c>
-      <c r="W10" s="36"/>
-      <c r="X10" s="34">
+      <c r="W10" s="39"/>
+      <c r="X10" s="37">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="36"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="39"/>
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="34">
+        <v>28</v>
+      </c>
+      <c r="F11" s="37">
         <v>240</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="34">
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="37">
         <v>0.874</v>
       </c>
-      <c r="U11" s="36"/>
-      <c r="V11" s="34">
+      <c r="U11" s="39"/>
+      <c r="V11" s="37">
         <v>147</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="34">
+      <c r="W11" s="39"/>
+      <c r="X11" s="37">
         <v>0.87795000000000001</v>
       </c>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="36"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="39"/>
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="34">
+        <v>60</v>
+      </c>
+      <c r="F12" s="37">
         <v>240</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="37">
         <v>0.85899999999999999</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="34">
+      <c r="U12" s="39"/>
+      <c r="V12" s="37">
         <v>59</v>
       </c>
-      <c r="W12" s="36"/>
-      <c r="X12" s="34">
+      <c r="W12" s="39"/>
+      <c r="X12" s="37">
         <v>0.87651000000000001</v>
       </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="36"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="34">
+        <v>33</v>
+      </c>
+      <c r="F13" s="37">
         <v>256</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="34">
+      <c r="M13" s="42"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="45"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
-      <c r="T13" s="34">
+      <c r="T13" s="37">
         <v>0.86</v>
       </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="34">
+      <c r="U13" s="39"/>
+      <c r="V13" s="37">
         <v>16</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="34">
+      <c r="W13" s="39"/>
+      <c r="X13" s="37">
         <v>0.88161</v>
       </c>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="36"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="34">
+        <v>44</v>
+      </c>
+      <c r="F14" s="37">
         <v>256</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="37">
         <v>0.875</v>
       </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="34">
+      <c r="U14" s="39"/>
+      <c r="V14" s="37">
         <v>150</v>
       </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="34">
+      <c r="W14" s="39"/>
+      <c r="X14" s="37">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="36"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="21"/>
     </row>
     <row r="15" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="34">
+        <v>46</v>
+      </c>
+      <c r="F15" s="37">
         <v>256</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="34">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="37">
         <v>0.875</v>
       </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="34">
+      <c r="U15" s="39"/>
+      <c r="V15" s="37">
         <v>85</v>
       </c>
-      <c r="W15" s="36"/>
-      <c r="X15" s="34">
+      <c r="W15" s="39"/>
+      <c r="X15" s="37">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="36"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="34">
+        <v>28</v>
+      </c>
+      <c r="F16" s="37">
         <v>256</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
-      <c r="T16" s="34">
+      <c r="T16" s="37">
         <v>0.86799999999999999</v>
       </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="34">
+      <c r="U16" s="39"/>
+      <c r="V16" s="37">
         <v>78</v>
       </c>
-      <c r="W16" s="36"/>
-      <c r="X16" s="34">
+      <c r="W16" s="39"/>
+      <c r="X16" s="37">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="36"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="47"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="39"/>
+      <c r="K18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="34" t="s">
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="34" t="s">
+      <c r="O18" s="39"/>
+      <c r="P18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="36"/>
-      <c r="P18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="36"/>
+      <c r="Q18" s="39"/>
       <c r="R18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="S18" s="34" t="s">
+      <c r="T18" s="39"/>
+      <c r="U18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="T18" s="36"/>
-      <c r="U18" s="34" t="s">
+      <c r="V18" s="39"/>
+      <c r="W18" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="V18" s="36"/>
-      <c r="W18" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="36"/>
+      <c r="X18" s="39"/>
       <c r="Y18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="47"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42">
+      <c r="G19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="41"/>
+      <c r="I19" s="40">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="34">
+      <c r="J19" s="41"/>
+      <c r="K19" s="37">
         <v>16</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="42">
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="34">
+      <c r="O19" s="41"/>
+      <c r="P19" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q19" s="36"/>
+      <c r="Q19" s="39"/>
       <c r="R19" s="48">
         <v>200</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="34">
+      <c r="S19" s="37"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="37">
         <v>24</v>
       </c>
-      <c r="X19" s="36"/>
+      <c r="X19" s="39"/>
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="38"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="47"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="34">
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="37">
         <v>16</v>
       </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="36"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="39"/>
       <c r="R20" s="49"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="34">
+      <c r="S20" s="37"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="37">
         <v>38</v>
       </c>
-      <c r="X20" s="36"/>
+      <c r="X20" s="39"/>
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="38"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="47"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="34">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="37">
         <v>32</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="34">
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q21" s="36"/>
+      <c r="Q21" s="39"/>
       <c r="R21" s="49"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="34">
+      <c r="S21" s="37"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="37">
         <v>168</v>
       </c>
-      <c r="X21" s="36"/>
+      <c r="X21" s="39"/>
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="38"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="47"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="34">
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="37">
         <v>32</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" s="36"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="39"/>
       <c r="R22" s="49"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="34">
+      <c r="S22" s="37"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="37">
         <v>29</v>
       </c>
-      <c r="X22" s="36"/>
+      <c r="X22" s="39"/>
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="38"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="47"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="39">
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="51">
         <v>64</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="39">
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="51">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="53"/>
       <c r="R23" s="49"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="39">
+      <c r="S23" s="51"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="51">
         <v>65</v>
       </c>
-      <c r="X23" s="41"/>
+      <c r="X23" s="53"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="38"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="47"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="34">
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="37">
         <v>64</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="36"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="39"/>
       <c r="R24" s="49"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="34">
+      <c r="S24" s="37"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="37">
         <v>178</v>
       </c>
-      <c r="X24" s="36"/>
+      <c r="X24" s="39"/>
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="38"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="47"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="34">
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="37">
         <v>16</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="34">
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q25" s="36"/>
+      <c r="Q25" s="39"/>
       <c r="R25" s="49"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="34">
+      <c r="S25" s="37"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="37">
         <v>24</v>
       </c>
-      <c r="X25" s="36"/>
+      <c r="X25" s="39"/>
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="38"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="47"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="34">
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="37">
         <v>16</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q26" s="36"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="39"/>
       <c r="R26" s="49"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="34">
+      <c r="S26" s="37"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="37">
         <v>38</v>
       </c>
-      <c r="X26" s="36"/>
+      <c r="X26" s="39"/>
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="38"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="47"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="34">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="37">
         <v>32</v>
       </c>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="34">
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="37">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q27" s="36"/>
+      <c r="Q27" s="39"/>
       <c r="R27" s="49"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="34">
+      <c r="S27" s="37"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="37">
         <v>29</v>
       </c>
-      <c r="X27" s="36"/>
+      <c r="X27" s="39"/>
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="38"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="47"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="34">
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="37">
         <v>32</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q28" s="36"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="39"/>
       <c r="R28" s="50"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="34">
+      <c r="S28" s="37"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="37">
         <v>70</v>
       </c>
-      <c r="X28" s="36"/>
+      <c r="X28" s="39"/>
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="38"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="G19:H28"/>
+    <mergeCell ref="I19:J28"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:R28"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I16"/>
     <mergeCell ref="J7:K16"/>
@@ -3526,112 +5018,17 @@
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="G19:H28"/>
-    <mergeCell ref="I19:J28"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O28"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E4D71-57A4-45A7-860F-1804C2EA1157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7712881-0E33-4A4F-8D5F-1C9257AE4212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="79">
   <si>
     <t>Model 1</t>
   </si>
@@ -268,13 +268,19 @@
   </si>
   <si>
     <t>recall</t>
+  </si>
+  <si>
+    <t>Best mAP50</t>
+  </si>
+  <si>
+    <t>precis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +309,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -564,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -628,6 +641,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,8 +654,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,8 +666,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +685,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -691,12 +720,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,16 +729,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,6 +1219,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1201253439"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2191,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2208,18 +2243,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="K2" s="25" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
@@ -2473,7 +2508,7 @@
       <c r="R10" s="5">
         <v>0.75</v>
       </c>
-      <c r="S10" s="54">
+      <c r="S10" s="25">
         <v>200</v>
       </c>
     </row>
@@ -2487,7 +2522,7 @@
       <c r="R11" s="5">
         <v>0.77</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="25">
         <v>125</v>
       </c>
     </row>
@@ -2501,7 +2536,7 @@
       <c r="R12" s="5">
         <v>0.78</v>
       </c>
-      <c r="S12" s="54">
+      <c r="S12" s="25">
         <v>66</v>
       </c>
     </row>
@@ -2521,7 +2556,7 @@
       <c r="R13" s="5">
         <v>0.77</v>
       </c>
-      <c r="S13" s="54">
+      <c r="S13" s="25">
         <v>145</v>
       </c>
     </row>
@@ -2611,28 +2646,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="M3" s="33" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="M3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -2692,7 +2727,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="31">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2701,7 +2736,7 @@
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="30">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -2727,27 +2762,27 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="30">
+      <c r="J6" s="30"/>
+      <c r="K6" s="31">
         <v>416</v>
       </c>
       <c r="M6" s="3">
@@ -2770,17 +2805,17 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30">
+      <c r="C7" s="33"/>
+      <c r="D7" s="31">
         <v>256</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="32"/>
       <c r="M7" s="3">
         <v>172</v>
       </c>
@@ -2804,14 +2839,14 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="32"/>
       <c r="M8" s="3">
         <v>116</v>
       </c>
@@ -2835,14 +2870,14 @@
       <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="32"/>
       <c r="M9" s="7">
         <v>143</v>
       </c>
@@ -2866,14 +2901,14 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="32"/>
       <c r="M10" s="3">
         <v>195</v>
       </c>
@@ -2894,19 +2929,19 @@
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="31"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="32"/>
       <c r="M11" s="3">
         <v>67</v>
       </c>
@@ -2927,17 +2962,17 @@
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="32"/>
       <c r="M12" s="3">
         <v>115</v>
       </c>
@@ -2958,19 +2993,19 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30">
+      <c r="F13" s="32"/>
+      <c r="G13" s="31">
         <v>16</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="32"/>
       <c r="M13" s="3">
         <v>159</v>
       </c>
@@ -2991,19 +3026,19 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="33"/>
       <c r="M14" s="3">
         <v>172</v>
       </c>
@@ -3021,29 +3056,21 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -3053,6 +3080,14 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3062,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB8005-5696-4015-A771-D6400CC063DD}">
   <dimension ref="A4:BV34"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,30 +3110,42 @@
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="34" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="33"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3146,22 +3193,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="30">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="30">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="30">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -3187,16 +3234,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -3220,16 +3267,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -3253,16 +3300,16 @@
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -3286,16 +3333,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -3319,16 +3366,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -3352,16 +3399,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="33"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -3385,16 +3432,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -3418,16 +3465,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -3451,16 +3498,16 @@
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -3475,26 +3522,42 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="34" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="S17" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="33"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
@@ -3530,6 +3593,45 @@
       </c>
       <c r="P18" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="S18" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="W18" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA18" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB18" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC18" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD18" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE18" s="61" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
@@ -3542,31 +3644,71 @@
       <c r="F19" s="4">
         <v>240</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="31">
         <v>1E-4</v>
       </c>
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="31">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="31">
         <v>200</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="M19" s="3">
+        <v>116</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.85799999999999998</v>
+      </c>
       <c r="O19" s="3">
         <v>24</v>
       </c>
       <c r="P19" s="3">
         <v>0.87990000000000002</v>
+      </c>
+      <c r="S19" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="55">
+        <v>240</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="W19" s="55">
+        <v>64</v>
+      </c>
+      <c r="X19" s="31">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Y19" s="55">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Z19" s="31">
+        <v>200</v>
+      </c>
+      <c r="AA19" s="56">
+        <v>200</v>
+      </c>
+      <c r="AB19" s="56">
+        <v>0.871</v>
+      </c>
+      <c r="AC19" s="56">
+        <v>65</v>
+      </c>
+      <c r="AD19" s="56">
+        <v>0.88971</v>
       </c>
     </row>
     <row r="20" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
@@ -3579,23 +3721,57 @@
       <c r="F20" s="4">
         <v>240</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="3">
+        <v>199</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.86799999999999999</v>
+      </c>
       <c r="O20" s="3">
         <v>38</v>
       </c>
       <c r="P20" s="3">
         <v>0.88602999999999998</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T20" s="4">
+        <v>240</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" s="32"/>
+      <c r="W20" s="4">
+        <v>32</v>
+      </c>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>168</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0.88941999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
@@ -3608,23 +3784,57 @@
       <c r="F21" s="4">
         <v>240</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="4">
         <v>32</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="3">
+        <v>200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.878</v>
+      </c>
       <c r="O21" s="3">
         <v>168</v>
       </c>
       <c r="P21" s="3">
         <v>0.88941999999999999</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="4">
+        <v>240</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" s="32"/>
+      <c r="W21" s="4">
+        <v>16</v>
+      </c>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="3">
+        <v>199</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>38</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0.88602999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
@@ -3637,22 +3847,56 @@
       <c r="F22" s="4">
         <v>240</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="4">
         <v>32</v>
       </c>
-      <c r="J22" s="31"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="3">
+        <v>66</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.86199999999999999</v>
+      </c>
       <c r="O22" s="3">
         <v>29</v>
       </c>
       <c r="P22" s="3">
+        <v>0.88482000000000005</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" s="4">
+        <v>240</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="32"/>
+      <c r="W22" s="4">
+        <v>32</v>
+      </c>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="3">
+        <v>66</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>29</v>
+      </c>
+      <c r="AD22" s="3">
         <v>0.88482000000000005</v>
       </c>
     </row>
@@ -3669,18 +3913,22 @@
       <c r="F23" s="12">
         <v>240</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="12">
         <v>64</v>
       </c>
-      <c r="J23" s="31"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="12">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="7">
+        <v>200</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.871</v>
+      </c>
       <c r="O23" s="7">
         <v>65</v>
       </c>
@@ -3689,18 +3937,36 @@
       </c>
       <c r="Q23"/>
       <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
+      <c r="S23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="4">
+        <v>256</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="32"/>
+      <c r="W23" s="4">
+        <v>32</v>
+      </c>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="3">
+        <v>130</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>78</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0.88275000000000003</v>
+      </c>
       <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
@@ -3756,23 +4022,57 @@
       <c r="F24" s="4">
         <v>256</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="4">
         <v>64</v>
       </c>
-      <c r="J24" s="31"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.876</v>
+      </c>
       <c r="O24" s="3">
         <v>178</v>
       </c>
       <c r="P24" s="3">
         <v>0.88748000000000005</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="4">
+        <v>256</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V24" s="32"/>
+      <c r="W24" s="4">
+        <v>16</v>
+      </c>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="3">
+        <v>83</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0.88161</v>
       </c>
     </row>
     <row r="25" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
@@ -3785,23 +4085,57 @@
       <c r="F25" s="4">
         <v>256</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="4">
         <v>16</v>
       </c>
-      <c r="J25" s="31"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="3">
+        <v>116</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.85799999999999998</v>
+      </c>
       <c r="O25" s="3">
         <v>24</v>
       </c>
       <c r="P25" s="3">
         <v>0.87990000000000002</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="4">
+        <v>256</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="32"/>
+      <c r="W25" s="4">
+        <v>32</v>
+      </c>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="3">
+        <v>103</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0.87453000000000003</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>85</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0.88134999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
@@ -3814,16 +4148,16 @@
       <c r="F26" s="4">
         <v>256</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="4">
         <v>16</v>
       </c>
-      <c r="J26" s="31"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="31"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
@@ -3832,6 +4166,36 @@
       <c r="P26" s="3">
         <v>0.88602999999999998</v>
       </c>
+      <c r="S26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T26" s="4">
+        <v>240</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V26" s="32"/>
+      <c r="W26" s="4">
+        <v>16</v>
+      </c>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="3">
+        <v>116</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>24</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0.87990000000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="4">
@@ -3843,16 +4207,16 @@
       <c r="F27" s="4">
         <v>256</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="4">
         <v>32</v>
       </c>
-      <c r="J27" s="31"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L27" s="31"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3">
@@ -3861,6 +4225,36 @@
       <c r="P27" s="3">
         <v>0.87646000000000002</v>
       </c>
+      <c r="S27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" s="4">
+        <v>256</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="32"/>
+      <c r="W27" s="4">
+        <v>16</v>
+      </c>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="3">
+        <v>199</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0.87475000000000003</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>150</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0.87702999999999998</v>
+      </c>
     </row>
     <row r="28" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
@@ -3872,16 +4266,16 @@
       <c r="F28" s="4">
         <v>256</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="4">
         <v>32</v>
       </c>
-      <c r="J28" s="32"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="32"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3">
@@ -3890,6 +4284,36 @@
       <c r="P28" s="3">
         <v>0.87980000000000003</v>
       </c>
+      <c r="S28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" s="4">
+        <v>256</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="33"/>
+      <c r="W28" s="55">
+        <v>64</v>
+      </c>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="55">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="3">
+        <v>114</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0.85890999999999995</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>59</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0.87651000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:74" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H32" s="18" t="s">
@@ -3902,7 +4326,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S19:AD28">
+    <sortCondition descending="1" ref="AD19:AD28"/>
+  </sortState>
+  <mergeCells count="19">
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
@@ -3920,6 +4352,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3927,7 +4360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87B3C22-B1D8-4A1D-8A98-F695002041FD}">
   <dimension ref="E4:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
+    <sheetView topLeftCell="E16" workbookViewId="0">
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
@@ -3935,529 +4368,529 @@
   <sheetData>
     <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="37" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="40"/>
     </row>
     <row r="6" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="37" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="37" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="40"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="37" t="s">
+      <c r="N6" s="40"/>
+      <c r="O6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="37" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="39"/>
+      <c r="R6" s="40"/>
       <c r="S6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="39"/>
-      <c r="V6" s="37" t="s">
+      <c r="U6" s="40"/>
+      <c r="V6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="39"/>
-      <c r="X6" s="37" t="s">
+      <c r="W6" s="40"/>
+      <c r="X6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="40"/>
       <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="38">
         <v>240</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="40">
+      <c r="I7" s="47"/>
+      <c r="J7" s="46">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="41"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="46">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="O7" s="37">
+      <c r="N7" s="47"/>
+      <c r="O7" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="46">
         <v>200</v>
       </c>
-      <c r="R7" s="41"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="38">
         <v>0.86</v>
       </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="37">
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
         <v>16</v>
       </c>
-      <c r="W7" s="39"/>
-      <c r="X7" s="37">
+      <c r="W7" s="40"/>
+      <c r="X7" s="38">
         <v>0.88061</v>
       </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40"/>
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="38">
         <v>240</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="37" t="s">
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="49"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="38">
         <v>0.875</v>
       </c>
-      <c r="U8" s="39"/>
-      <c r="V8" s="37">
+      <c r="U8" s="40"/>
+      <c r="V8" s="38">
         <v>150</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="37">
+      <c r="W8" s="40"/>
+      <c r="X8" s="38">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="40"/>
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="38">
         <v>240</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="37">
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9" s="38">
         <v>0.875</v>
       </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="37">
+      <c r="U9" s="40"/>
+      <c r="V9" s="38">
         <v>85</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="37">
+      <c r="W9" s="40"/>
+      <c r="X9" s="38">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="40"/>
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="38">
         <v>240</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="37" t="s">
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="38">
         <v>0.86699999999999999</v>
       </c>
-      <c r="U10" s="39"/>
-      <c r="V10" s="37">
+      <c r="U10" s="40"/>
+      <c r="V10" s="38">
         <v>78</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="37">
+      <c r="W10" s="40"/>
+      <c r="X10" s="38">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="40"/>
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="38">
         <v>240</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="37">
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T11" s="38">
         <v>0.874</v>
       </c>
-      <c r="U11" s="39"/>
-      <c r="V11" s="37">
+      <c r="U11" s="40"/>
+      <c r="V11" s="38">
         <v>147</v>
       </c>
-      <c r="W11" s="39"/>
-      <c r="X11" s="37">
+      <c r="W11" s="40"/>
+      <c r="X11" s="38">
         <v>0.87795000000000001</v>
       </c>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="38">
         <v>240</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="37" t="s">
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="38">
         <v>0.85899999999999999</v>
       </c>
-      <c r="U12" s="39"/>
-      <c r="V12" s="37">
+      <c r="U12" s="40"/>
+      <c r="V12" s="38">
         <v>59</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="37">
+      <c r="W12" s="40"/>
+      <c r="X12" s="38">
         <v>0.87651000000000001</v>
       </c>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="38">
         <v>256</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="37">
+      <c r="M13" s="48"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="49"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="38">
         <v>0.86</v>
       </c>
-      <c r="U13" s="39"/>
-      <c r="V13" s="37">
+      <c r="U13" s="40"/>
+      <c r="V13" s="38">
         <v>16</v>
       </c>
-      <c r="W13" s="39"/>
-      <c r="X13" s="37">
+      <c r="W13" s="40"/>
+      <c r="X13" s="38">
         <v>0.88161</v>
       </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="38">
         <v>256</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="37" t="s">
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="38">
         <v>0.875</v>
       </c>
-      <c r="U14" s="39"/>
-      <c r="V14" s="37">
+      <c r="U14" s="40"/>
+      <c r="V14" s="38">
         <v>150</v>
       </c>
-      <c r="W14" s="39"/>
-      <c r="X14" s="37">
+      <c r="W14" s="40"/>
+      <c r="X14" s="38">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="21"/>
     </row>
     <row r="15" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="38">
         <v>256</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="37">
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="49"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
-      <c r="T15" s="37">
+      <c r="T15" s="38">
         <v>0.875</v>
       </c>
-      <c r="U15" s="39"/>
-      <c r="V15" s="37">
+      <c r="U15" s="40"/>
+      <c r="V15" s="38">
         <v>85</v>
       </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="37">
+      <c r="W15" s="40"/>
+      <c r="X15" s="38">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="40"/>
       <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="38">
         <v>256</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="37" t="s">
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="45"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="38">
         <v>0.86799999999999999</v>
       </c>
-      <c r="U16" s="39"/>
-      <c r="V16" s="37">
+      <c r="U16" s="40"/>
+      <c r="V16" s="38">
         <v>78</v>
       </c>
-      <c r="W16" s="39"/>
-      <c r="X16" s="37">
+      <c r="W16" s="40"/>
+      <c r="X16" s="38">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="40"/>
       <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="37" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="47"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
@@ -4466,47 +4899,47 @@
       <c r="F18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="37" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="37" t="s">
+      <c r="J18" s="40"/>
+      <c r="K18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="37" t="s">
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="37" t="s">
+      <c r="O18" s="40"/>
+      <c r="P18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="39"/>
+      <c r="Q18" s="40"/>
       <c r="R18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="37" t="s">
+      <c r="S18" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="39"/>
-      <c r="U18" s="37" t="s">
+      <c r="T18" s="40"/>
+      <c r="U18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="39"/>
-      <c r="W18" s="37" t="s">
+      <c r="V18" s="40"/>
+      <c r="W18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="39"/>
+      <c r="X18" s="40"/>
       <c r="Y18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="47"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
@@ -4515,43 +4948,43 @@
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="40">
+      <c r="H19" s="47"/>
+      <c r="I19" s="46">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="37">
+      <c r="J19" s="47"/>
+      <c r="K19" s="38">
         <v>16</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40">
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="46">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="37">
+      <c r="O19" s="47"/>
+      <c r="P19" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="48">
+      <c r="Q19" s="40"/>
+      <c r="R19" s="52">
         <v>200</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="37">
+      <c r="S19" s="38"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="38">
         <v>24</v>
       </c>
-      <c r="X19" s="39"/>
+      <c r="X19" s="40"/>
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="47"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
@@ -4560,35 +4993,35 @@
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="37">
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="38">
         <v>16</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="37" t="s">
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="37">
+      <c r="Q20" s="40"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="38">
         <v>38</v>
       </c>
-      <c r="X20" s="39"/>
+      <c r="X20" s="40"/>
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="47"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
@@ -4597,35 +5030,35 @@
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="37">
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="38">
         <v>32</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="37">
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="37">
+      <c r="Q21" s="40"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="38">
         <v>168</v>
       </c>
-      <c r="X21" s="39"/>
+      <c r="X21" s="40"/>
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="47"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
@@ -4634,35 +5067,35 @@
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="37">
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="38">
         <v>32</v>
       </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="37" t="s">
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="37">
+      <c r="Q22" s="40"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="38">
         <v>29</v>
       </c>
-      <c r="X22" s="39"/>
+      <c r="X22" s="40"/>
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="47"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
@@ -4671,35 +5104,35 @@
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="51">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="43">
         <v>64</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="51">
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="43">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="51">
+      <c r="Q23" s="45"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="43">
         <v>65</v>
       </c>
-      <c r="X23" s="53"/>
+      <c r="X23" s="45"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="47"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
@@ -4708,35 +5141,35 @@
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="37">
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="38">
         <v>64</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="37" t="s">
+      <c r="L24" s="39"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="37">
+      <c r="Q24" s="40"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="38">
         <v>178</v>
       </c>
-      <c r="X24" s="39"/>
+      <c r="X24" s="40"/>
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="47"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
@@ -4745,35 +5178,35 @@
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="37">
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="38">
         <v>16</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="37">
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="37">
+      <c r="Q25" s="40"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="38">
         <v>24</v>
       </c>
-      <c r="X25" s="39"/>
+      <c r="X25" s="40"/>
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="47"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="42"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
@@ -4782,35 +5215,35 @@
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="37">
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="38">
         <v>16</v>
       </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="37" t="s">
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="37">
+      <c r="Q26" s="40"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="38">
         <v>38</v>
       </c>
-      <c r="X26" s="39"/>
+      <c r="X26" s="40"/>
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="47"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="42"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
@@ -4819,35 +5252,35 @@
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="37">
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="38">
         <v>32</v>
       </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="37">
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="38">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="37">
+      <c r="Q27" s="40"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="38">
         <v>29</v>
       </c>
-      <c r="X27" s="39"/>
+      <c r="X27" s="40"/>
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="47"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="42"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
@@ -4856,87 +5289,106 @@
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="37">
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="38">
         <v>32</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="37" t="s">
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="37">
+      <c r="Q28" s="40"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="38">
         <v>70</v>
       </c>
-      <c r="X28" s="39"/>
+      <c r="X28" s="40"/>
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="47"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I16"/>
+    <mergeCell ref="J7:K16"/>
+    <mergeCell ref="M7:N16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R16"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
     <mergeCell ref="Z18:AA18"/>
@@ -4961,74 +5413,55 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="W20:X20"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I16"/>
-    <mergeCell ref="J7:K16"/>
-    <mergeCell ref="M7:N16"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R16"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7712881-0E33-4A4F-8D5F-1C9257AE4212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27CC075-7DF7-4022-BF60-0F42EC877319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="80">
   <si>
     <t>Model 1</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>precis</t>
+  </si>
+  <si>
+    <t>rata-rata</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -642,6 +645,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,8 +666,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,8 +678,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -685,21 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +720,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,26 +735,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2226,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2243,18 +2237,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-      <c r="K2" s="26" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
@@ -2475,6 +2469,15 @@
       </c>
       <c r="V7" s="1">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="1">
+        <f>AVERAGE(I4:I7)</f>
+        <v>0.83099999999999996</v>
       </c>
     </row>
     <row r="9" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,28 +2649,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="M3" s="30" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="M3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -2727,7 +2730,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="34">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2736,7 +2739,7 @@
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="37">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -2762,27 +2765,27 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31">
+      <c r="J6" s="37"/>
+      <c r="K6" s="34">
         <v>416</v>
       </c>
       <c r="M6" s="3">
@@ -2805,17 +2808,17 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31">
+      <c r="C7" s="36"/>
+      <c r="D7" s="34">
         <v>256</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="32"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="35"/>
       <c r="M7" s="3">
         <v>172</v>
       </c>
@@ -2839,14 +2842,14 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="35"/>
       <c r="M8" s="3">
         <v>116</v>
       </c>
@@ -2870,14 +2873,14 @@
       <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="32"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="35"/>
       <c r="M9" s="7">
         <v>143</v>
       </c>
@@ -2901,14 +2904,14 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="32"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="35"/>
       <c r="M10" s="3">
         <v>195</v>
       </c>
@@ -2929,19 +2932,19 @@
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="31" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="32"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="35"/>
       <c r="M11" s="3">
         <v>67</v>
       </c>
@@ -2962,17 +2965,17 @@
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="32"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="35"/>
       <c r="M12" s="3">
         <v>115</v>
       </c>
@@ -2993,19 +2996,19 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="31">
+      <c r="F13" s="35"/>
+      <c r="G13" s="34">
         <v>16</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="32"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="35"/>
       <c r="M13" s="3">
         <v>159</v>
       </c>
@@ -3026,19 +3029,19 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="33"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="36"/>
       <c r="M14" s="3">
         <v>172</v>
       </c>
@@ -3056,21 +3059,29 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -3080,14 +3091,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3097,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB8005-5696-4015-A771-D6400CC063DD}">
   <dimension ref="A4:BV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,27 +3128,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="30"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="35" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="37"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="30"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3193,22 +3196,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="37">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="37">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="37">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -3234,16 +3237,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="30"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -3267,16 +3270,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -3300,16 +3303,16 @@
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="30"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="30"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -3333,16 +3336,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="30"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -3366,16 +3369,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="37"/>
       <c r="K11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="L11" s="37"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -3399,16 +3402,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="30"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -3432,16 +3435,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="37"/>
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="30"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -3465,16 +3468,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="30"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -3498,16 +3501,16 @@
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="37"/>
       <c r="K15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="30"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -3522,42 +3525,42 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="30"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="35" t="s">
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="37"/>
-      <c r="S17" s="60" t="s">
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
+      <c r="S17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60" t="s">
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="60"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="30"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
@@ -3594,43 +3597,43 @@
       <c r="P18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="58" t="s">
+      <c r="S18" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="58" t="s">
+      <c r="T18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="U18" s="58" t="s">
+      <c r="U18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="58" t="s">
+      <c r="V18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="W18" s="58" t="s">
+      <c r="W18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="X18" s="58" t="s">
+      <c r="X18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Y18" s="58" t="s">
+      <c r="Y18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z18" s="58" t="s">
+      <c r="Z18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AA18" s="59" t="s">
+      <c r="AA18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AB18" s="59" t="s">
+      <c r="AB18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AC18" s="59" t="s">
+      <c r="AC18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AD18" s="59" t="s">
+      <c r="AD18" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AE18" s="61" t="s">
+      <c r="AE18" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3644,22 +3647,22 @@
       <c r="F19" s="4">
         <v>240</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="34">
         <v>1E-4</v>
       </c>
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="34">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="34">
         <v>200</v>
       </c>
       <c r="M19" s="3">
@@ -3674,40 +3677,40 @@
       <c r="P19" s="3">
         <v>0.87990000000000002</v>
       </c>
-      <c r="S19" s="57" t="s">
+      <c r="S19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="55">
+      <c r="T19" s="4">
         <v>240</v>
       </c>
       <c r="U19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="31">
+      <c r="V19" s="34">
         <v>1E-4</v>
       </c>
-      <c r="W19" s="55">
+      <c r="W19" s="4">
         <v>64</v>
       </c>
-      <c r="X19" s="31">
+      <c r="X19" s="34">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Y19" s="55">
+      <c r="Y19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z19" s="31">
+      <c r="Z19" s="34">
         <v>200</v>
       </c>
-      <c r="AA19" s="56">
+      <c r="AA19" s="3">
         <v>200</v>
       </c>
-      <c r="AB19" s="56">
+      <c r="AB19" s="3">
         <v>0.871</v>
       </c>
-      <c r="AC19" s="56">
+      <c r="AC19" s="3">
         <v>65</v>
       </c>
-      <c r="AD19" s="56">
+      <c r="AD19" s="3">
         <v>0.88971</v>
       </c>
     </row>
@@ -3721,16 +3724,16 @@
       <c r="F20" s="4">
         <v>240</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="3">
         <v>199</v>
       </c>
@@ -3752,15 +3755,15 @@
       <c r="U20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="32"/>
+      <c r="V20" s="35"/>
       <c r="W20" s="4">
         <v>32</v>
       </c>
-      <c r="X20" s="32"/>
+      <c r="X20" s="35"/>
       <c r="Y20" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z20" s="32"/>
+      <c r="Z20" s="35"/>
       <c r="AA20" s="3">
         <v>200</v>
       </c>
@@ -3784,16 +3787,16 @@
       <c r="F21" s="4">
         <v>240</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="4">
         <v>32</v>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="3">
         <v>200</v>
       </c>
@@ -3815,15 +3818,15 @@
       <c r="U21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="32"/>
+      <c r="V21" s="35"/>
       <c r="W21" s="4">
         <v>16</v>
       </c>
-      <c r="X21" s="32"/>
+      <c r="X21" s="35"/>
       <c r="Y21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z21" s="32"/>
+      <c r="Z21" s="35"/>
       <c r="AA21" s="3">
         <v>199</v>
       </c>
@@ -3847,16 +3850,16 @@
       <c r="F22" s="4">
         <v>240</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="4">
         <v>32</v>
       </c>
-      <c r="J22" s="32"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="32"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="3">
         <v>66</v>
       </c>
@@ -3878,15 +3881,15 @@
       <c r="U22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="32"/>
+      <c r="V22" s="35"/>
       <c r="W22" s="4">
         <v>32</v>
       </c>
-      <c r="X22" s="32"/>
+      <c r="X22" s="35"/>
       <c r="Y22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z22" s="32"/>
+      <c r="Z22" s="35"/>
       <c r="AA22" s="3">
         <v>66</v>
       </c>
@@ -3913,16 +3916,16 @@
       <c r="F23" s="12">
         <v>240</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="12">
         <v>64</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="12">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L23" s="32"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="7">
         <v>200</v>
       </c>
@@ -3946,15 +3949,15 @@
       <c r="U23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="32"/>
+      <c r="V23" s="35"/>
       <c r="W23" s="4">
         <v>32</v>
       </c>
-      <c r="X23" s="32"/>
+      <c r="X23" s="35"/>
       <c r="Y23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z23" s="32"/>
+      <c r="Z23" s="35"/>
       <c r="AA23" s="3">
         <v>130</v>
       </c>
@@ -4022,16 +4025,16 @@
       <c r="F24" s="4">
         <v>256</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="4">
         <v>64</v>
       </c>
-      <c r="J24" s="32"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="32"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="3">
         <v>200</v>
       </c>
@@ -4053,15 +4056,15 @@
       <c r="U24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="32"/>
+      <c r="V24" s="35"/>
       <c r="W24" s="4">
         <v>16</v>
       </c>
-      <c r="X24" s="32"/>
+      <c r="X24" s="35"/>
       <c r="Y24" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z24" s="32"/>
+      <c r="Z24" s="35"/>
       <c r="AA24" s="3">
         <v>83</v>
       </c>
@@ -4085,16 +4088,16 @@
       <c r="F25" s="4">
         <v>256</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="4">
         <v>16</v>
       </c>
-      <c r="J25" s="32"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L25" s="32"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="3">
         <v>116</v>
       </c>
@@ -4116,15 +4119,15 @@
       <c r="U25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="32"/>
+      <c r="V25" s="35"/>
       <c r="W25" s="4">
         <v>32</v>
       </c>
-      <c r="X25" s="32"/>
+      <c r="X25" s="35"/>
       <c r="Y25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z25" s="32"/>
+      <c r="Z25" s="35"/>
       <c r="AA25" s="3">
         <v>103</v>
       </c>
@@ -4148,16 +4151,16 @@
       <c r="F26" s="4">
         <v>256</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="4">
         <v>16</v>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="32"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
@@ -4175,15 +4178,15 @@
       <c r="U26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="32"/>
+      <c r="V26" s="35"/>
       <c r="W26" s="4">
         <v>16</v>
       </c>
-      <c r="X26" s="32"/>
+      <c r="X26" s="35"/>
       <c r="Y26" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z26" s="32"/>
+      <c r="Z26" s="35"/>
       <c r="AA26" s="3">
         <v>116</v>
       </c>
@@ -4207,16 +4210,16 @@
       <c r="F27" s="4">
         <v>256</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="4">
         <v>32</v>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L27" s="32"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3">
@@ -4234,15 +4237,15 @@
       <c r="U27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="32"/>
+      <c r="V27" s="35"/>
       <c r="W27" s="4">
         <v>16</v>
       </c>
-      <c r="X27" s="32"/>
+      <c r="X27" s="35"/>
       <c r="Y27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z27" s="32"/>
+      <c r="Z27" s="35"/>
       <c r="AA27" s="3">
         <v>199</v>
       </c>
@@ -4266,16 +4269,16 @@
       <c r="F28" s="4">
         <v>256</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="4">
         <v>32</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3">
@@ -4293,15 +4296,15 @@
       <c r="U28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="33"/>
-      <c r="W28" s="55">
+      <c r="V28" s="36"/>
+      <c r="W28" s="4">
         <v>64</v>
       </c>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="55">
+      <c r="X28" s="36"/>
+      <c r="Y28" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z28" s="33"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="3">
         <v>114</v>
       </c>
@@ -4330,11 +4333,6 @@
     <sortCondition descending="1" ref="AD19:AD28"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
@@ -4349,6 +4347,11 @@
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="J6:J15"/>
     <mergeCell ref="E4:L4"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="Z19:Z28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4368,529 +4371,529 @@
   <sheetData>
     <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="38" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="40"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="44"/>
     </row>
     <row r="6" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="38" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="44"/>
+      <c r="O6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="38" t="s">
+      <c r="P6" s="44"/>
+      <c r="Q6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="40"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="40"/>
-      <c r="V6" s="38" t="s">
+      <c r="U6" s="44"/>
+      <c r="V6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="40"/>
-      <c r="X6" s="38" t="s">
+      <c r="W6" s="44"/>
+      <c r="X6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="40"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="44"/>
       <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="42">
         <v>240</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="46" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46">
+      <c r="I7" s="46"/>
+      <c r="J7" s="45">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="47"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="45">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="38">
+      <c r="N7" s="46"/>
+      <c r="O7" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="46">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45">
         <v>200</v>
       </c>
-      <c r="R7" s="47"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7" s="42">
         <v>0.86</v>
       </c>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="U7" s="44"/>
+      <c r="V7" s="42">
         <v>16</v>
       </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="38">
+      <c r="W7" s="44"/>
+      <c r="X7" s="42">
         <v>0.88061</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="44"/>
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="42">
         <v>240</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="38" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="42">
         <v>0.875</v>
       </c>
-      <c r="U8" s="40"/>
-      <c r="V8" s="38">
+      <c r="U8" s="44"/>
+      <c r="V8" s="42">
         <v>150</v>
       </c>
-      <c r="W8" s="40"/>
-      <c r="X8" s="38">
+      <c r="W8" s="44"/>
+      <c r="X8" s="42">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="40"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="44"/>
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="42">
         <v>240</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="38">
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
-      <c r="T9" s="38">
+      <c r="T9" s="42">
         <v>0.875</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="38">
+      <c r="U9" s="44"/>
+      <c r="V9" s="42">
         <v>85</v>
       </c>
-      <c r="W9" s="40"/>
-      <c r="X9" s="38">
+      <c r="W9" s="44"/>
+      <c r="X9" s="42">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="40"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="42">
         <v>240</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="38" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="42">
         <v>0.86699999999999999</v>
       </c>
-      <c r="U10" s="40"/>
-      <c r="V10" s="38">
+      <c r="U10" s="44"/>
+      <c r="V10" s="42">
         <v>78</v>
       </c>
-      <c r="W10" s="40"/>
-      <c r="X10" s="38">
+      <c r="W10" s="44"/>
+      <c r="X10" s="42">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="40"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="44"/>
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="42">
         <v>240</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="38">
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
-      <c r="T11" s="38">
+      <c r="T11" s="42">
         <v>0.874</v>
       </c>
-      <c r="U11" s="40"/>
-      <c r="V11" s="38">
+      <c r="U11" s="44"/>
+      <c r="V11" s="42">
         <v>147</v>
       </c>
-      <c r="W11" s="40"/>
-      <c r="X11" s="38">
+      <c r="W11" s="44"/>
+      <c r="X11" s="42">
         <v>0.87795000000000001</v>
       </c>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="40"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="44"/>
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="42">
         <v>240</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="38" t="s">
+      <c r="M12" s="47"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="42">
         <v>0.85899999999999999</v>
       </c>
-      <c r="U12" s="40"/>
-      <c r="V12" s="38">
+      <c r="U12" s="44"/>
+      <c r="V12" s="42">
         <v>59</v>
       </c>
-      <c r="W12" s="40"/>
-      <c r="X12" s="38">
+      <c r="W12" s="44"/>
+      <c r="X12" s="42">
         <v>0.87651000000000001</v>
       </c>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="40"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="44"/>
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="42">
         <v>256</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="49"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="38">
+      <c r="M13" s="47"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
-      <c r="T13" s="38">
+      <c r="T13" s="42">
         <v>0.86</v>
       </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="38">
+      <c r="U13" s="44"/>
+      <c r="V13" s="42">
         <v>16</v>
       </c>
-      <c r="W13" s="40"/>
-      <c r="X13" s="38">
+      <c r="W13" s="44"/>
+      <c r="X13" s="42">
         <v>0.88161</v>
       </c>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="40"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="42">
         <v>256</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="38" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="42">
         <v>0.875</v>
       </c>
-      <c r="U14" s="40"/>
-      <c r="V14" s="38">
+      <c r="U14" s="44"/>
+      <c r="V14" s="42">
         <v>150</v>
       </c>
-      <c r="W14" s="40"/>
-      <c r="X14" s="38">
+      <c r="W14" s="44"/>
+      <c r="X14" s="42">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="40"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="44"/>
       <c r="AA14" s="21"/>
     </row>
     <row r="15" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="42">
         <v>256</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="38">
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
-      <c r="T15" s="38">
+      <c r="T15" s="42">
         <v>0.875</v>
       </c>
-      <c r="U15" s="40"/>
-      <c r="V15" s="38">
+      <c r="U15" s="44"/>
+      <c r="V15" s="42">
         <v>85</v>
       </c>
-      <c r="W15" s="40"/>
-      <c r="X15" s="38">
+      <c r="W15" s="44"/>
+      <c r="X15" s="42">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="40"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="44"/>
       <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="42">
         <v>256</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="38" t="s">
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="51"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="50"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="42">
         <v>0.86799999999999999</v>
       </c>
-      <c r="U16" s="40"/>
-      <c r="V16" s="38">
+      <c r="U16" s="44"/>
+      <c r="V16" s="42">
         <v>78</v>
       </c>
-      <c r="W16" s="40"/>
-      <c r="X16" s="38">
+      <c r="W16" s="44"/>
+      <c r="X16" s="42">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="40"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="44"/>
       <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="38" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="52"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
@@ -4899,47 +4902,47 @@
       <c r="F18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="44"/>
+      <c r="I18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="38" t="s">
+      <c r="J18" s="44"/>
+      <c r="K18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="38" t="s">
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="40"/>
-      <c r="P18" s="38" t="s">
+      <c r="O18" s="44"/>
+      <c r="P18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="40"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="40"/>
-      <c r="U18" s="38" t="s">
+      <c r="T18" s="44"/>
+      <c r="U18" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="38" t="s">
+      <c r="V18" s="44"/>
+      <c r="W18" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="40"/>
+      <c r="X18" s="44"/>
       <c r="Y18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
@@ -4948,43 +4951,43 @@
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="46">
+      <c r="H19" s="46"/>
+      <c r="I19" s="45">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="38">
+      <c r="J19" s="46"/>
+      <c r="K19" s="42">
         <v>16</v>
       </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="46">
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="45">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="47"/>
-      <c r="P19" s="38">
+      <c r="O19" s="46"/>
+      <c r="P19" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="52">
+      <c r="Q19" s="44"/>
+      <c r="R19" s="53">
         <v>200</v>
       </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="38">
+      <c r="S19" s="42"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="42">
         <v>24</v>
       </c>
-      <c r="X19" s="40"/>
+      <c r="X19" s="44"/>
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="52"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
@@ -4993,35 +4996,35 @@
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="38">
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="42">
         <v>16</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="38" t="s">
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="38">
+      <c r="Q20" s="44"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="42">
         <v>38</v>
       </c>
-      <c r="X20" s="40"/>
+      <c r="X20" s="44"/>
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="52"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
@@ -5030,35 +5033,35 @@
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="38">
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="42">
         <v>32</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="38">
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="38">
+      <c r="Q21" s="44"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="42">
         <v>168</v>
       </c>
-      <c r="X21" s="40"/>
+      <c r="X21" s="44"/>
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="52"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
@@ -5067,35 +5070,35 @@
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="38">
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="42">
         <v>32</v>
       </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="38" t="s">
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="38">
+      <c r="Q22" s="44"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="42">
         <v>29</v>
       </c>
-      <c r="X22" s="40"/>
+      <c r="X22" s="44"/>
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="52"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
@@ -5104,35 +5107,35 @@
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="43">
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="56">
         <v>64</v>
       </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="43">
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="56">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="43">
+      <c r="Q23" s="58"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="56">
         <v>65</v>
       </c>
-      <c r="X23" s="45"/>
+      <c r="X23" s="58"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="52"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
@@ -5141,35 +5144,35 @@
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="38">
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="42">
         <v>64</v>
       </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="38" t="s">
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="38">
+      <c r="Q24" s="44"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="42">
         <v>178</v>
       </c>
-      <c r="X24" s="40"/>
+      <c r="X24" s="44"/>
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="52"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
@@ -5178,35 +5181,35 @@
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="38">
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="42">
         <v>16</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="38">
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="38">
+      <c r="Q25" s="44"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="42">
         <v>24</v>
       </c>
-      <c r="X25" s="40"/>
+      <c r="X25" s="44"/>
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="42"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="52"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
@@ -5215,35 +5218,35 @@
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="38">
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="42">
         <v>16</v>
       </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="38" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="38">
+      <c r="Q26" s="44"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="42">
         <v>38</v>
       </c>
-      <c r="X26" s="40"/>
+      <c r="X26" s="44"/>
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="42"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="52"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
@@ -5252,35 +5255,35 @@
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="38">
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="42">
         <v>32</v>
       </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="38">
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="42">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="38">
+      <c r="Q27" s="44"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="42">
         <v>29</v>
       </c>
-      <c r="X27" s="40"/>
+      <c r="X27" s="44"/>
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="42"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="52"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
@@ -5289,49 +5292,144 @@
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="38">
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="42">
         <v>32</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="38" t="s">
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="38">
+      <c r="Q28" s="44"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="42">
         <v>70</v>
       </c>
-      <c r="X28" s="40"/>
+      <c r="X28" s="44"/>
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="42"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="G19:H28"/>
+    <mergeCell ref="I19:J28"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:R28"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I16"/>
     <mergeCell ref="J7:K16"/>
@@ -5356,112 +5454,17 @@
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="G19:H28"/>
-    <mergeCell ref="I19:J28"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O28"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27CC075-7DF7-4022-BF60-0F42EC877319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F228517-94F8-44AD-B4F0-63D9C8DC7691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
@@ -666,8 +666,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,11 +678,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,6 +690,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,6 +700,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,12 +735,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,15 +742,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,16 +1006,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:V17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>125</v>
       </c>
       <c r="I5" s="5">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="K5" s="5">
         <v>0.83899999999999997</v>
@@ -2395,7 +2395,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="5">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K6" s="5">
         <v>0.83899999999999997</v>
@@ -2440,7 +2440,7 @@
         <v>145</v>
       </c>
       <c r="I7" s="5">
-        <v>0.83799999999999997</v>
+        <v>0.82</v>
       </c>
       <c r="K7" s="5">
         <v>0.84599999999999997</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="I8" s="1">
         <f>AVERAGE(I4:I7)</f>
-        <v>0.83099999999999996</v>
+        <v>0.8264999999999999</v>
       </c>
     </row>
     <row r="9" spans="5:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="1">
-        <v>81</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="15" spans="5:22" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>125</v>
       </c>
       <c r="G15" s="1">
-        <v>83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="16" spans="5:22" x14ac:dyDescent="0.25">
@@ -2593,7 +2593,7 @@
         <v>66</v>
       </c>
       <c r="G16" s="1">
-        <v>84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>145</v>
       </c>
       <c r="G17" s="1">
-        <v>83.8</v>
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -2650,24 +2650,24 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="M3" s="37" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="M3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
@@ -2739,7 +2739,7 @@
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="33">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -2784,7 +2784,7 @@
       <c r="I6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="34">
         <v>416</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="35"/>
       <c r="M7" s="3">
         <v>172</v>
@@ -2848,7 +2848,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="37"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="35"/>
       <c r="M8" s="3">
         <v>116</v>
@@ -2879,7 +2879,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="35"/>
       <c r="M9" s="7">
         <v>143</v>
@@ -2910,7 +2910,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="35"/>
       <c r="M10" s="3">
         <v>195</v>
@@ -2943,7 +2943,7 @@
       <c r="I11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="35"/>
       <c r="M11" s="3">
         <v>67</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="35"/>
       <c r="M12" s="3">
         <v>115</v>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="35"/>
       <c r="M13" s="3">
         <v>159</v>
@@ -3040,7 +3040,7 @@
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="37"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="36"/>
       <c r="M14" s="3">
         <v>172</v>
@@ -3059,29 +3059,21 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -3091,6 +3083,14 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3100,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB8005-5696-4015-A771-D6400CC063DD}">
   <dimension ref="A4:BV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -3128,27 +3128,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="37"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="39" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="37"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3196,22 +3196,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="33">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="33">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="33">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -3237,16 +3237,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="37"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="37"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -3270,16 +3270,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="37"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -3303,16 +3303,16 @@
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="37"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -3336,16 +3336,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="37"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="37"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -3369,16 +3369,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="37"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -3402,16 +3402,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="37"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="37"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -3435,16 +3435,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="37"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="37"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -3468,16 +3468,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="37"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -3501,16 +3501,16 @@
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="37"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -3525,42 +3525,42 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="37"/>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="39" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="41"/>
-      <c r="S17" s="38" t="s">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
+      <c r="S17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38" t="s">
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="37"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4333,6 +4333,11 @@
     <sortCondition descending="1" ref="AD19:AD28"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
@@ -4347,11 +4352,6 @@
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="J6:J15"/>
     <mergeCell ref="E4:L4"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="Z19:Z28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4456,29 +4456,29 @@
         <v>240</v>
       </c>
       <c r="G7" s="44"/>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="45">
+      <c r="I7" s="51"/>
+      <c r="J7" s="50">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="50">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="46"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="P7" s="44"/>
-      <c r="Q7" s="45">
+      <c r="Q7" s="50">
         <v>200</v>
       </c>
-      <c r="R7" s="46"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
@@ -4505,21 +4505,21 @@
         <v>240</v>
       </c>
       <c r="G8" s="44"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="42" t="s">
         <v>47</v>
       </c>
       <c r="P8" s="44"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="53"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
@@ -4546,21 +4546,21 @@
         <v>240</v>
       </c>
       <c r="G9" s="44"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="P9" s="44"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="53"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
@@ -4587,21 +4587,21 @@
         <v>240</v>
       </c>
       <c r="G10" s="44"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="42" t="s">
         <v>47</v>
       </c>
       <c r="P10" s="44"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="53"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
@@ -4628,21 +4628,21 @@
         <v>240</v>
       </c>
       <c r="G11" s="44"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="48"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="P11" s="44"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
@@ -4669,21 +4669,21 @@
         <v>240</v>
       </c>
       <c r="G12" s="44"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="48"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="42" t="s">
         <v>47</v>
       </c>
       <c r="P12" s="44"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
@@ -4710,21 +4710,21 @@
         <v>256</v>
       </c>
       <c r="G13" s="44"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="P13" s="44"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="48"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="53"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
@@ -4751,21 +4751,21 @@
         <v>256</v>
       </c>
       <c r="G14" s="44"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="P14" s="44"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="48"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
@@ -4792,21 +4792,21 @@
         <v>256</v>
       </c>
       <c r="G15" s="44"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="48"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="P15" s="44"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="48"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="53"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
@@ -4833,21 +4833,21 @@
         <v>256</v>
       </c>
       <c r="G16" s="44"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
       <c r="O16" s="42" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="44"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="50"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
@@ -4892,8 +4892,8 @@
       <c r="W17" s="43"/>
       <c r="X17" s="43"/>
       <c r="Y17" s="44"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="52"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
@@ -4941,8 +4941,8 @@
       <c r="Y18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="52"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="46"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
@@ -4951,28 +4951,28 @@
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="45">
+      <c r="H19" s="51"/>
+      <c r="I19" s="50">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="46"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="42">
         <v>16</v>
       </c>
       <c r="L19" s="43"/>
       <c r="M19" s="44"/>
-      <c r="N19" s="45">
+      <c r="N19" s="50">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="46"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q19" s="44"/>
-      <c r="R19" s="53">
+      <c r="R19" s="56">
         <v>200</v>
       </c>
       <c r="S19" s="42"/>
@@ -4986,8 +4986,8 @@
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="52"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="46"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
@@ -4996,22 +4996,22 @@
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="42">
         <v>16</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="44"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
       <c r="P20" s="42" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="44"/>
-      <c r="R20" s="54"/>
+      <c r="R20" s="57"/>
       <c r="S20" s="42"/>
       <c r="T20" s="44"/>
       <c r="U20" s="42"/>
@@ -5023,8 +5023,8 @@
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="52"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="46"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
@@ -5033,22 +5033,22 @@
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="42">
         <v>32</v>
       </c>
       <c r="L21" s="43"/>
       <c r="M21" s="44"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
       <c r="P21" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q21" s="44"/>
-      <c r="R21" s="54"/>
+      <c r="R21" s="57"/>
       <c r="S21" s="42"/>
       <c r="T21" s="44"/>
       <c r="U21" s="42"/>
@@ -5060,8 +5060,8 @@
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="52"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="46"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
@@ -5070,22 +5070,22 @@
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="42">
         <v>32</v>
       </c>
       <c r="L22" s="43"/>
       <c r="M22" s="44"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="42" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="44"/>
-      <c r="R22" s="54"/>
+      <c r="R22" s="57"/>
       <c r="S22" s="42"/>
       <c r="T22" s="44"/>
       <c r="U22" s="42"/>
@@ -5097,8 +5097,8 @@
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="52"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="46"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
@@ -5107,35 +5107,35 @@
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="56">
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="47">
         <v>64</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="56">
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="47">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="56">
+      <c r="Q23" s="49"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="47">
         <v>65</v>
       </c>
-      <c r="X23" s="58"/>
+      <c r="X23" s="49"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="52"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="46"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
@@ -5144,22 +5144,22 @@
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="42">
         <v>64</v>
       </c>
       <c r="L24" s="43"/>
       <c r="M24" s="44"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="48"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="42" t="s">
         <v>47</v>
       </c>
       <c r="Q24" s="44"/>
-      <c r="R24" s="54"/>
+      <c r="R24" s="57"/>
       <c r="S24" s="42"/>
       <c r="T24" s="44"/>
       <c r="U24" s="42"/>
@@ -5171,8 +5171,8 @@
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="52"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="46"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
@@ -5181,22 +5181,22 @@
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
       <c r="K25" s="42">
         <v>16</v>
       </c>
       <c r="L25" s="43"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
       <c r="P25" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q25" s="44"/>
-      <c r="R25" s="54"/>
+      <c r="R25" s="57"/>
       <c r="S25" s="42"/>
       <c r="T25" s="44"/>
       <c r="U25" s="42"/>
@@ -5208,8 +5208,8 @@
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="52"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="46"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
@@ -5218,22 +5218,22 @@
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="42">
         <v>16</v>
       </c>
       <c r="L26" s="43"/>
       <c r="M26" s="44"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="42" t="s">
         <v>47</v>
       </c>
       <c r="Q26" s="44"/>
-      <c r="R26" s="54"/>
+      <c r="R26" s="57"/>
       <c r="S26" s="42"/>
       <c r="T26" s="44"/>
       <c r="U26" s="42"/>
@@ -5245,8 +5245,8 @@
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="52"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="46"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
@@ -5255,22 +5255,22 @@
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="42">
         <v>32</v>
       </c>
       <c r="L27" s="43"/>
       <c r="M27" s="44"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="48"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
       <c r="P27" s="42">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q27" s="44"/>
-      <c r="R27" s="54"/>
+      <c r="R27" s="57"/>
       <c r="S27" s="42"/>
       <c r="T27" s="44"/>
       <c r="U27" s="42"/>
@@ -5282,8 +5282,8 @@
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="52"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="46"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
@@ -5292,22 +5292,22 @@
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="42">
         <v>32</v>
       </c>
       <c r="L28" s="43"/>
       <c r="M28" s="44"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="42" t="s">
         <v>47</v>
       </c>
       <c r="Q28" s="44"/>
-      <c r="R28" s="55"/>
+      <c r="R28" s="58"/>
       <c r="S28" s="42"/>
       <c r="T28" s="44"/>
       <c r="U28" s="42"/>
@@ -5319,60 +5319,79 @@
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="52"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I16"/>
+    <mergeCell ref="J7:K16"/>
+    <mergeCell ref="M7:N16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R16"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
     <mergeCell ref="Z18:AA18"/>
@@ -5397,74 +5416,55 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="W20:X20"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I16"/>
-    <mergeCell ref="J7:K16"/>
-    <mergeCell ref="M7:N16"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R16"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F228517-94F8-44AD-B4F0-63D9C8DC7691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C90793E-A932-4FAF-9AC9-EE8296F7C1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
     <sheet name="hyperparameter" sheetId="2" r:id="rId2"/>
     <sheet name="hyperparameter2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="NEW SKENARIO" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="89">
   <si>
     <t>Model 1</t>
   </si>
@@ -278,6 +279,33 @@
   <si>
     <t>rata-rata</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>yolov8m</t>
+  </si>
+  <si>
+    <t>RMSProp</t>
+  </si>
+  <si>
+    <t>yolov8s</t>
+  </si>
+  <si>
+    <t>mAP Terbaik</t>
+  </si>
 </sst>
 </file>
 
@@ -323,7 +351,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF47D359"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -653,6 +687,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,6 +781,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,6 +1343,1339 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>mAP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NEW SKENARIO'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NEW SKENARIO'!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43691000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83652000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76636000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81623000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70355999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87480999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58157999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86755000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77102999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85841999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70813999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E065-493F-B973-CA6A45E7CD17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1052780351"/>
+        <c:axId val="1058205535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1052780351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058205535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1058205535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1052780351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID" sz="1800"/>
+              <a:t>RMSProp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>('NEW SKENARIO'!$F$3,'NEW SKENARIO'!$F$5,'NEW SKENARIO'!$F$7,'NEW SKENARIO'!$F$9,'NEW SKENARIO'!$F$11,'NEW SKENARIO'!$F$13,'NEW SKENARIO'!$F$15,'NEW SKENARIO'!$F$17,'NEW SKENARIO'!$F$19,'NEW SKENARIO'!$F$21,'NEW SKENARIO'!$F$23,'NEW SKENARIO'!$F$25,'NEW SKENARIO'!$F$27,'NEW SKENARIO'!$F$29,'NEW SKENARIO'!$F$31,'NEW SKENARIO'!$F$33)</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('NEW SKENARIO'!$G$3,'NEW SKENARIO'!$G$5,'NEW SKENARIO'!$G$7,'NEW SKENARIO'!$G$9,'NEW SKENARIO'!$G$11,'NEW SKENARIO'!$G$13,'NEW SKENARIO'!$G$15,'NEW SKENARIO'!$G$17,'NEW SKENARIO'!$G$19,'NEW SKENARIO'!$G$21,'NEW SKENARIO'!$G$23,'NEW SKENARIO'!$G$25,'NEW SKENARIO'!$G$27,'NEW SKENARIO'!$G$29,'NEW SKENARIO'!$G$31,'NEW SKENARIO'!$G$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.43691000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76636000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70355999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58157999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77102999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70813999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EF3-4E8F-B631-EFE4F209FA63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1058206975"/>
+        <c:axId val="1058208895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1058206975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058208895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1058208895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058206975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID" sz="1800"/>
+              <a:t>Adam</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NEW SKENARIO'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>('NEW SKENARIO'!$F$2,'NEW SKENARIO'!$F$4,'NEW SKENARIO'!$F$6,'NEW SKENARIO'!$F$8,'NEW SKENARIO'!$F$10,'NEW SKENARIO'!$F$12,'NEW SKENARIO'!$F$14,'NEW SKENARIO'!$F$16,'NEW SKENARIO'!$F$18,'NEW SKENARIO'!$F$20,'NEW SKENARIO'!$F$22,'NEW SKENARIO'!$F$24,'NEW SKENARIO'!$F$26,'NEW SKENARIO'!$F$28,'NEW SKENARIO'!$F$30,'NEW SKENARIO'!$F$32)</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('NEW SKENARIO'!$G$2,'NEW SKENARIO'!$G$4,'NEW SKENARIO'!$G$6,'NEW SKENARIO'!$G$8,'NEW SKENARIO'!$G$10,'NEW SKENARIO'!$G$12,'NEW SKENARIO'!$G$14,'NEW SKENARIO'!$G$16,'NEW SKENARIO'!$G$18,'NEW SKENARIO'!$G$20,'NEW SKENARIO'!$G$22,'NEW SKENARIO'!$G$24,'NEW SKENARIO'!$G$26,'NEW SKENARIO'!$G$28,'NEW SKENARIO'!$G$30,'NEW SKENARIO'!$G$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83652000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81623000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87480999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86755000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85841999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFEC-4A4F-9F1C-90E60F4E8369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1056596735"/>
+        <c:axId val="1056597695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1056596735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056597695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1056597695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056596735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -1339,6 +2713,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -1855,6 +3349,1512 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1893,6 +4893,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Bagan 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE7FA09-C733-A084-376B-A13AE8FD67A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>397808</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>128867</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Bagan 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77C34B2-9002-EE60-68C8-937D55011D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>386602</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>117661</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Bagan 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F9CE11-3546-8B14-98C9-082608A2EFCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2220,7 +5333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2237,18 +5350,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="K2" s="29" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="K2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
@@ -2649,28 +5762,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="M3" s="33" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="M3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -2730,7 +5843,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="36">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2739,7 +5852,7 @@
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="35">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -2765,27 +5878,27 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34">
+      <c r="J6" s="35"/>
+      <c r="K6" s="36">
         <v>416</v>
       </c>
       <c r="M6" s="3">
@@ -2808,17 +5921,17 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="34">
+      <c r="C7" s="38"/>
+      <c r="D7" s="36">
         <v>256</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="35"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="37"/>
       <c r="M7" s="3">
         <v>172</v>
       </c>
@@ -2842,14 +5955,14 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="35"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="37"/>
       <c r="M8" s="3">
         <v>116</v>
       </c>
@@ -2873,14 +5986,14 @@
       <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="37"/>
       <c r="M9" s="7">
         <v>143</v>
       </c>
@@ -2904,14 +6017,14 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="35"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="37"/>
       <c r="M10" s="3">
         <v>195</v>
       </c>
@@ -2932,19 +6045,19 @@
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="34" t="s">
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="37"/>
       <c r="M11" s="3">
         <v>67</v>
       </c>
@@ -2965,17 +6078,17 @@
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="37"/>
       <c r="M12" s="3">
         <v>115</v>
       </c>
@@ -2996,19 +6109,19 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34">
+      <c r="F13" s="37"/>
+      <c r="G13" s="36">
         <v>16</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="37"/>
       <c r="M13" s="3">
         <v>159</v>
       </c>
@@ -3029,19 +6142,19 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="36"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="38"/>
       <c r="M14" s="3">
         <v>172</v>
       </c>
@@ -3059,18 +6172,18 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3128,27 +6241,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="33"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="33"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -3196,22 +6309,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="35">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="35">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="35">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -3237,16 +6350,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -3270,16 +6383,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -3303,16 +6416,16 @@
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -3336,16 +6449,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="33"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -3369,16 +6482,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="33"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -3402,16 +6515,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="33"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="33"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -3435,16 +6548,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -3468,16 +6581,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -3501,16 +6614,16 @@
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -3525,42 +6638,42 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="33"/>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="38" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="S17" s="41" t="s">
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+      <c r="S17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41" t="s">
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="33"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
@@ -3647,22 +6760,22 @@
       <c r="F19" s="4">
         <v>240</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="36">
         <v>1E-4</v>
       </c>
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="36">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="36">
         <v>200</v>
       </c>
       <c r="M19" s="3">
@@ -3686,19 +6799,19 @@
       <c r="U19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="34">
+      <c r="V19" s="36">
         <v>1E-4</v>
       </c>
       <c r="W19" s="4">
         <v>64</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19" s="36">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Y19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z19" s="34">
+      <c r="Z19" s="36">
         <v>200</v>
       </c>
       <c r="AA19" s="3">
@@ -3724,16 +6837,16 @@
       <c r="F20" s="4">
         <v>240</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="35"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="3">
         <v>199</v>
       </c>
@@ -3755,15 +6868,15 @@
       <c r="U20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="35"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="4">
         <v>32</v>
       </c>
-      <c r="X20" s="35"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z20" s="35"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="3">
         <v>200</v>
       </c>
@@ -3787,16 +6900,16 @@
       <c r="F21" s="4">
         <v>240</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="4">
         <v>32</v>
       </c>
-      <c r="J21" s="35"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="3">
         <v>200</v>
       </c>
@@ -3818,15 +6931,15 @@
       <c r="U21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="35"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="4">
         <v>16</v>
       </c>
-      <c r="X21" s="35"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z21" s="35"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="3">
         <v>199</v>
       </c>
@@ -3850,16 +6963,16 @@
       <c r="F22" s="4">
         <v>240</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="4">
         <v>32</v>
       </c>
-      <c r="J22" s="35"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="3">
         <v>66</v>
       </c>
@@ -3881,15 +6994,15 @@
       <c r="U22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="35"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="4">
         <v>32</v>
       </c>
-      <c r="X22" s="35"/>
+      <c r="X22" s="37"/>
       <c r="Y22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z22" s="35"/>
+      <c r="Z22" s="37"/>
       <c r="AA22" s="3">
         <v>66</v>
       </c>
@@ -3916,16 +7029,16 @@
       <c r="F23" s="12">
         <v>240</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="12">
         <v>64</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="12">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="7">
         <v>200</v>
       </c>
@@ -3949,15 +7062,15 @@
       <c r="U23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="35"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="4">
         <v>32</v>
       </c>
-      <c r="X23" s="35"/>
+      <c r="X23" s="37"/>
       <c r="Y23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z23" s="35"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="3">
         <v>130</v>
       </c>
@@ -4025,16 +7138,16 @@
       <c r="F24" s="4">
         <v>256</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="4">
         <v>64</v>
       </c>
-      <c r="J24" s="35"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="35"/>
+      <c r="L24" s="37"/>
       <c r="M24" s="3">
         <v>200</v>
       </c>
@@ -4056,15 +7169,15 @@
       <c r="U24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V24" s="35"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="4">
         <v>16</v>
       </c>
-      <c r="X24" s="35"/>
+      <c r="X24" s="37"/>
       <c r="Y24" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z24" s="35"/>
+      <c r="Z24" s="37"/>
       <c r="AA24" s="3">
         <v>83</v>
       </c>
@@ -4088,16 +7201,16 @@
       <c r="F25" s="4">
         <v>256</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="4">
         <v>16</v>
       </c>
-      <c r="J25" s="35"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L25" s="35"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="3">
         <v>116</v>
       </c>
@@ -4119,15 +7232,15 @@
       <c r="U25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="35"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="4">
         <v>32</v>
       </c>
-      <c r="X25" s="35"/>
+      <c r="X25" s="37"/>
       <c r="Y25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z25" s="35"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="3">
         <v>103</v>
       </c>
@@ -4151,16 +7264,16 @@
       <c r="F26" s="4">
         <v>256</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="4">
         <v>16</v>
       </c>
-      <c r="J26" s="35"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="35"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3">
@@ -4178,15 +7291,15 @@
       <c r="U26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V26" s="35"/>
+      <c r="V26" s="37"/>
       <c r="W26" s="4">
         <v>16</v>
       </c>
-      <c r="X26" s="35"/>
+      <c r="X26" s="37"/>
       <c r="Y26" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z26" s="35"/>
+      <c r="Z26" s="37"/>
       <c r="AA26" s="3">
         <v>116</v>
       </c>
@@ -4210,16 +7323,16 @@
       <c r="F27" s="4">
         <v>256</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="4">
         <v>32</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3">
@@ -4237,15 +7350,15 @@
       <c r="U27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="35"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="4">
         <v>16</v>
       </c>
-      <c r="X27" s="35"/>
+      <c r="X27" s="37"/>
       <c r="Y27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z27" s="35"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="3">
         <v>199</v>
       </c>
@@ -4269,16 +7382,16 @@
       <c r="F28" s="4">
         <v>256</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
       <c r="I28" s="4">
         <v>32</v>
       </c>
-      <c r="J28" s="36"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L28" s="36"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3">
@@ -4296,15 +7409,15 @@
       <c r="U28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="36"/>
+      <c r="V28" s="38"/>
       <c r="W28" s="4">
         <v>64</v>
       </c>
-      <c r="X28" s="36"/>
+      <c r="X28" s="38"/>
       <c r="Y28" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Z28" s="36"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="3">
         <v>114</v>
       </c>
@@ -4371,529 +7484,529 @@
   <sheetData>
     <row r="4" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="42" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="44"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="46"/>
     </row>
     <row r="6" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="42" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="42" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="46"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="42" t="s">
+      <c r="N6" s="46"/>
+      <c r="O6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="42" t="s">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="44"/>
+      <c r="R6" s="46"/>
       <c r="S6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="44"/>
-      <c r="V6" s="42" t="s">
+      <c r="U6" s="46"/>
+      <c r="V6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="44"/>
-      <c r="X6" s="42" t="s">
+      <c r="W6" s="46"/>
+      <c r="X6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="44"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46"/>
       <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="44">
         <v>240</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="50" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="50">
+      <c r="I7" s="53"/>
+      <c r="J7" s="52">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="52">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="42">
+      <c r="N7" s="53"/>
+      <c r="O7" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="50">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="52">
         <v>200</v>
       </c>
-      <c r="R7" s="51"/>
+      <c r="R7" s="53"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="44">
         <v>0.86</v>
       </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="42">
+      <c r="U7" s="46"/>
+      <c r="V7" s="44">
         <v>16</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="42">
+      <c r="W7" s="46"/>
+      <c r="X7" s="44">
         <v>0.88061</v>
       </c>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="44"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="46"/>
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="44">
         <v>240</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="42" t="s">
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="53"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="44">
         <v>0.875</v>
       </c>
-      <c r="U8" s="44"/>
-      <c r="V8" s="42">
+      <c r="U8" s="46"/>
+      <c r="V8" s="44">
         <v>150</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="42">
+      <c r="W8" s="46"/>
+      <c r="X8" s="44">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="44"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="46"/>
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="44">
         <v>240</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="42">
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="53"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="44">
         <v>0.875</v>
       </c>
-      <c r="U9" s="44"/>
-      <c r="V9" s="42">
+      <c r="U9" s="46"/>
+      <c r="V9" s="44">
         <v>85</v>
       </c>
-      <c r="W9" s="44"/>
-      <c r="X9" s="42">
+      <c r="W9" s="46"/>
+      <c r="X9" s="44">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="46"/>
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="44">
         <v>240</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="42" t="s">
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="53"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="55"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="44">
         <v>0.86699999999999999</v>
       </c>
-      <c r="U10" s="44"/>
-      <c r="V10" s="42">
+      <c r="U10" s="46"/>
+      <c r="V10" s="44">
         <v>78</v>
       </c>
-      <c r="W10" s="44"/>
-      <c r="X10" s="42">
+      <c r="W10" s="46"/>
+      <c r="X10" s="44">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="44"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="46"/>
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="44">
         <v>240</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="42">
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="53"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="44">
         <v>0.874</v>
       </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="42">
+      <c r="U11" s="46"/>
+      <c r="V11" s="44">
         <v>147</v>
       </c>
-      <c r="W11" s="44"/>
-      <c r="X11" s="42">
+      <c r="W11" s="46"/>
+      <c r="X11" s="44">
         <v>0.87795000000000001</v>
       </c>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="46"/>
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="44">
         <v>240</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="42" t="s">
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="44">
         <v>0.85899999999999999</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="42">
+      <c r="U12" s="46"/>
+      <c r="V12" s="44">
         <v>59</v>
       </c>
-      <c r="W12" s="44"/>
-      <c r="X12" s="42">
+      <c r="W12" s="46"/>
+      <c r="X12" s="44">
         <v>0.87651000000000001</v>
       </c>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="44"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="46"/>
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="44">
         <v>256</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="42">
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="44">
         <v>0.86</v>
       </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="42">
+      <c r="U13" s="46"/>
+      <c r="V13" s="44">
         <v>16</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="42">
+      <c r="W13" s="46"/>
+      <c r="X13" s="44">
         <v>0.88161</v>
       </c>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="44"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="46"/>
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="44">
         <v>256</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="42" t="s">
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="55"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T14" s="44">
         <v>0.875</v>
       </c>
-      <c r="U14" s="44"/>
-      <c r="V14" s="42">
+      <c r="U14" s="46"/>
+      <c r="V14" s="44">
         <v>150</v>
       </c>
-      <c r="W14" s="44"/>
-      <c r="X14" s="42">
+      <c r="W14" s="46"/>
+      <c r="X14" s="44">
         <v>0.87702999999999998</v>
       </c>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="44"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="46"/>
       <c r="AA14" s="21"/>
     </row>
     <row r="15" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="44">
         <v>256</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="42">
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="44">
         <v>0.875</v>
       </c>
-      <c r="U15" s="44"/>
-      <c r="V15" s="42">
+      <c r="U15" s="46"/>
+      <c r="V15" s="44">
         <v>85</v>
       </c>
-      <c r="W15" s="44"/>
-      <c r="X15" s="42">
+      <c r="W15" s="46"/>
+      <c r="X15" s="44">
         <v>0.88134999999999997</v>
       </c>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="44"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="46"/>
       <c r="AA15" s="21"/>
     </row>
     <row r="16" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="44">
         <v>256</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="42" t="s">
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
-      <c r="T16" s="42">
+      <c r="T16" s="44">
         <v>0.86799999999999999</v>
       </c>
-      <c r="U16" s="44"/>
-      <c r="V16" s="42">
+      <c r="U16" s="46"/>
+      <c r="V16" s="44">
         <v>78</v>
       </c>
-      <c r="W16" s="44"/>
-      <c r="X16" s="42">
+      <c r="W16" s="46"/>
+      <c r="X16" s="44">
         <v>0.88275000000000003</v>
       </c>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="44"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="46"/>
       <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="42" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="46"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="48"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
@@ -4902,47 +8015,47 @@
       <c r="F18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="42" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="42" t="s">
+      <c r="J18" s="46"/>
+      <c r="K18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="42" t="s">
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="44"/>
-      <c r="P18" s="42" t="s">
+      <c r="O18" s="46"/>
+      <c r="P18" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="44"/>
+      <c r="Q18" s="46"/>
       <c r="R18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="42" t="s">
+      <c r="S18" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="44"/>
-      <c r="U18" s="42" t="s">
+      <c r="T18" s="46"/>
+      <c r="U18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="44"/>
-      <c r="W18" s="42" t="s">
+      <c r="V18" s="46"/>
+      <c r="W18" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="44"/>
+      <c r="X18" s="46"/>
       <c r="Y18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="46"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="48"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
@@ -4951,43 +8064,43 @@
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="50">
+      <c r="H19" s="53"/>
+      <c r="I19" s="52">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="42">
+      <c r="J19" s="53"/>
+      <c r="K19" s="44">
         <v>16</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="50">
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="52">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="42">
+      <c r="O19" s="53"/>
+      <c r="P19" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="56">
+      <c r="Q19" s="46"/>
+      <c r="R19" s="58">
         <v>200</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="42">
+      <c r="S19" s="44"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="44">
         <v>24</v>
       </c>
-      <c r="X19" s="44"/>
+      <c r="X19" s="46"/>
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="46"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="48"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
@@ -4996,35 +8109,35 @@
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="42">
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="44">
         <v>16</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="42" t="s">
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="42">
+      <c r="Q20" s="46"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="44">
         <v>38</v>
       </c>
-      <c r="X20" s="44"/>
+      <c r="X20" s="46"/>
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="46"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="48"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
@@ -5033,35 +8146,35 @@
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="42">
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="44">
         <v>32</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="42">
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="42">
+      <c r="Q21" s="46"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="44">
         <v>168</v>
       </c>
-      <c r="X21" s="44"/>
+      <c r="X21" s="46"/>
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="46"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="48"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
@@ -5070,35 +8183,35 @@
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="42">
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="44">
         <v>32</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="42" t="s">
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="42">
+      <c r="Q22" s="46"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="44">
         <v>29</v>
       </c>
-      <c r="X22" s="44"/>
+      <c r="X22" s="46"/>
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="46"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="48"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
@@ -5107,35 +8220,35 @@
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="47">
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="49">
         <v>64</v>
       </c>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="47">
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="49">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="47">
+      <c r="Q23" s="51"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="49">
         <v>65</v>
       </c>
-      <c r="X23" s="49"/>
+      <c r="X23" s="51"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="46"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="48"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
@@ -5144,35 +8257,35 @@
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="42">
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="44">
         <v>64</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="42" t="s">
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="42">
+      <c r="Q24" s="46"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="44">
         <v>178</v>
       </c>
-      <c r="X24" s="44"/>
+      <c r="X24" s="46"/>
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="46"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="48"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
@@ -5181,35 +8294,35 @@
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="42">
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="44">
         <v>16</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="42">
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="42">
+      <c r="Q25" s="46"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="44">
         <v>24</v>
       </c>
-      <c r="X25" s="44"/>
+      <c r="X25" s="46"/>
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="46"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="48"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
@@ -5218,35 +8331,35 @@
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="42">
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="44">
         <v>16</v>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="42" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="42">
+      <c r="Q26" s="46"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="44">
         <v>38</v>
       </c>
-      <c r="X26" s="44"/>
+      <c r="X26" s="46"/>
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="46"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="48"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
@@ -5255,35 +8368,35 @@
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="42">
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="44">
         <v>32</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="42">
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="44">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="42">
+      <c r="Q27" s="46"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="44">
         <v>29</v>
       </c>
-      <c r="X27" s="44"/>
+      <c r="X27" s="46"/>
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="46"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="48"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
@@ -5292,35 +8405,35 @@
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="42">
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="44">
         <v>32</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="42" t="s">
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="42">
+      <c r="Q28" s="46"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="44">
         <v>70</v>
       </c>
-      <c r="X28" s="44"/>
+      <c r="X28" s="46"/>
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="46"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="141">
@@ -5468,4 +8581,811 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C04CA8-7E11-46B5-8A38-0B245AB1C139}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.84499000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.43691000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.87112000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.76819999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.83652000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.48063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.88990000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.76636000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.84499000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.61319999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.83462000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.76719999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.81623000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.70355999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.87480999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.76349999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.83860000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.64615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.86292999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.78881000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.83396000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.58157999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.86755000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>64</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.77183000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.83860000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.64615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>32</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.86292999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.78881000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.83396000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>64</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.77102999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="4">
+        <v>32</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.85841999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="4">
+        <v>64</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.70813999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="29">
+        <f>MAX(G2:G33)</f>
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="H35" s="29">
+        <f>INDEX(A2:A33, MATCH(MAX(G2:G33), G2:G33, 0))</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:F35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C90793E-A932-4FAF-9AC9-EE8296F7C1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B497FCCE-64C7-4F31-BF19-1126A1747C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
@@ -704,8 +704,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,8 +716,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,9 +731,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,21 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +758,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,6 +771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,7 +1515,7 @@
                   <c:v>0.48063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88990000000000002</c:v>
+                  <c:v>0.87916000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.76636000000000004</c:v>
@@ -1819,8 +1819,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ID" sz="1800"/>
-              <a:t>RMSProp</a:t>
+              <a:rPr lang="en-ID" sz="1600"/>
+              <a:t>Perbandingan Optimizer</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1863,6 +1863,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>RMSProp</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1880,35 +1883,12 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2041,7 +2021,171 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Adam</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>('NEW SKENARIO'!$F$2,'NEW SKENARIO'!$F$4,'NEW SKENARIO'!$F$6,'NEW SKENARIO'!$F$8,'NEW SKENARIO'!$F$10,'NEW SKENARIO'!$F$12,'NEW SKENARIO'!$F$14,'NEW SKENARIO'!$F$16,'NEW SKENARIO'!$F$18,'NEW SKENARIO'!$F$20,'NEW SKENARIO'!$F$22,'NEW SKENARIO'!$F$24,'NEW SKENARIO'!$F$26,'NEW SKENARIO'!$F$28,'NEW SKENARIO'!$F$30,'NEW SKENARIO'!$F$32)</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Adam</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Adam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('NEW SKENARIO'!$G$2,'NEW SKENARIO'!$G$4,'NEW SKENARIO'!$G$6,'NEW SKENARIO'!$G$8,'NEW SKENARIO'!$G$10,'NEW SKENARIO'!$G$12,'NEW SKENARIO'!$G$14,'NEW SKENARIO'!$G$16,'NEW SKENARIO'!$G$18,'NEW SKENARIO'!$G$20,'NEW SKENARIO'!$G$22,'NEW SKENARIO'!$G$24,'NEW SKENARIO'!$G$26,'NEW SKENARIO'!$G$28,'NEW SKENARIO'!$G$30,'NEW SKENARIO'!$G$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83652000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87916000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81623000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87480999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86755000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85841999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8C8-4362-9B47-A51A1CB776F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2073,6 +2217,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Jumlah</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-ID" baseline="0"/>
+                  <a:t> Percobann</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2117,6 +2321,8 @@
         <c:axId val="1058208895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2134,6 +2340,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>mAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2177,6 +2438,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2443,7 +2735,7 @@
                   <c:v>0.83652000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88990000000000002</c:v>
+                  <c:v>0.87916000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.84499000000000002</c:v>
@@ -2480,6 +2772,458 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.85841999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFEC-4A4F-9F1C-90E60F4E8369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1056596735"/>
+        <c:axId val="1056597695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1056596735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056597695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1056597695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056596735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID" sz="1800"/>
+              <a:t>RMSProp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NEW SKENARIO'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>('NEW SKENARIO'!$F$3,'NEW SKENARIO'!$F$5,'NEW SKENARIO'!$F$7,'NEW SKENARIO'!$F$9,'NEW SKENARIO'!$F$11,'NEW SKENARIO'!$F$13,'NEW SKENARIO'!$F$15,'NEW SKENARIO'!$F$17,'NEW SKENARIO'!$F$19,'NEW SKENARIO'!$F$21,'NEW SKENARIO'!$F$23,'NEW SKENARIO'!$F$25,'NEW SKENARIO'!$F$27,'NEW SKENARIO'!$F$29,'NEW SKENARIO'!$F$31,'NEW SKENARIO'!$F$33)</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RMSProp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('NEW SKENARIO'!$G$33,'NEW SKENARIO'!$G$31,'NEW SKENARIO'!$G$29,'NEW SKENARIO'!$G$27,'NEW SKENARIO'!$G$25,'NEW SKENARIO'!$G$23,'NEW SKENARIO'!$G$21,'NEW SKENARIO'!$G$19,'NEW SKENARIO'!$G$17,'NEW SKENARIO'!$G$15,'NEW SKENARIO'!$G$13,'NEW SKENARIO'!$G$11,'NEW SKENARIO'!$G$9,'NEW SKENARIO'!$G$7,'NEW SKENARIO'!$G$5,'NEW SKENARIO'!$G$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.70813999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77102999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58157999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70355999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76636000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48063</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43691000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2833,6 +3577,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -4359,6 +5143,508 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4941,16 +6227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>397808</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561094</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>194823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>128867</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>138954</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4978,15 +6264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>386602</xdr:colOff>
+      <xdr:colOff>577102</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
+      <xdr:rowOff>101974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>117661</xdr:colOff>
+      <xdr:colOff>308161</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:rowOff>21292</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5006,6 +6292,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>386123</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>117181</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Bagan 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E0C6C3-C455-7A11-B87F-6D70A930B627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5333,7 +6655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:V17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -5736,7 +7058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F24B3-4B99-49F3-AA16-7769F65F4673}">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -5763,24 +7085,24 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="M3" s="35" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="M3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
@@ -5852,7 +7174,7 @@
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="39">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -5897,7 +7219,7 @@
       <c r="I6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="36">
         <v>416</v>
       </c>
@@ -5930,7 +7252,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="37"/>
       <c r="M7" s="3">
         <v>172</v>
@@ -5961,7 +7283,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="37"/>
       <c r="M8" s="3">
         <v>116</v>
@@ -5992,7 +7314,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="37"/>
       <c r="M9" s="7">
         <v>143</v>
@@ -6023,7 +7345,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="37"/>
       <c r="M10" s="3">
         <v>195</v>
@@ -6056,7 +7378,7 @@
       <c r="I11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="37"/>
       <c r="M11" s="3">
         <v>67</v>
@@ -6087,7 +7409,7 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="37"/>
       <c r="M12" s="3">
         <v>115</v>
@@ -6120,7 +7442,7 @@
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="37"/>
       <c r="M13" s="3">
         <v>159</v>
@@ -6153,7 +7475,7 @@
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="38"/>
       <c r="M14" s="3">
         <v>172</v>
@@ -6172,21 +7494,29 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -6196,14 +7526,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6213,7 +7535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB8005-5696-4015-A771-D6400CC063DD}">
   <dimension ref="A4:BV34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -6241,27 +7563,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="35"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="40" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="35"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -6309,22 +7631,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="39">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="39">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="39">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -6350,16 +7672,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -6383,16 +7705,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="35"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -6416,16 +7738,16 @@
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -6449,16 +7771,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -6482,16 +7804,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -6515,16 +7837,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -6548,16 +7870,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="39"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -6581,16 +7903,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -6614,16 +7936,16 @@
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="39"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -6638,42 +7960,42 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="35"/>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="40" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="42"/>
-      <c r="S17" s="43" t="s">
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="S17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43" t="s">
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="35"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
@@ -7446,11 +8768,6 @@
     <sortCondition descending="1" ref="AD19:AD28"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
@@ -7465,6 +8782,11 @@
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="J6:J15"/>
     <mergeCell ref="E4:L4"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="Z19:Z28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7569,29 +8891,29 @@
         <v>240</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="52">
+      <c r="I7" s="48"/>
+      <c r="J7" s="47">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="53"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P7" s="46"/>
-      <c r="Q7" s="52">
+      <c r="Q7" s="47">
         <v>200</v>
       </c>
-      <c r="R7" s="53"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
@@ -7618,21 +8940,21 @@
         <v>240</v>
       </c>
       <c r="G8" s="46"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P8" s="46"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
@@ -7659,21 +8981,21 @@
         <v>240</v>
       </c>
       <c r="G9" s="46"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P9" s="46"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
@@ -7700,21 +9022,21 @@
         <v>240</v>
       </c>
       <c r="G10" s="46"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P10" s="46"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="55"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
@@ -7741,21 +9063,21 @@
         <v>240</v>
       </c>
       <c r="G11" s="46"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P11" s="46"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
@@ -7782,21 +9104,21 @@
         <v>240</v>
       </c>
       <c r="G12" s="46"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P12" s="46"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
@@ -7823,21 +9145,21 @@
         <v>256</v>
       </c>
       <c r="G13" s="46"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P13" s="46"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
@@ -7864,21 +9186,21 @@
         <v>256</v>
       </c>
       <c r="G14" s="46"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P14" s="46"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
@@ -7905,21 +9227,21 @@
         <v>256</v>
       </c>
       <c r="G15" s="46"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P15" s="46"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
@@ -7946,21 +9268,21 @@
         <v>256</v>
       </c>
       <c r="G16" s="46"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
       <c r="O16" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="46"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
@@ -8005,8 +9327,8 @@
       <c r="W17" s="45"/>
       <c r="X17" s="45"/>
       <c r="Y17" s="46"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="48"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="54"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
@@ -8054,8 +9376,8 @@
       <c r="Y18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="48"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="54"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
@@ -8064,28 +9386,28 @@
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="52">
+      <c r="H19" s="48"/>
+      <c r="I19" s="47">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="53"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="44">
         <v>16</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="46"/>
-      <c r="N19" s="52">
+      <c r="N19" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="53"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q19" s="46"/>
-      <c r="R19" s="58">
+      <c r="R19" s="55">
         <v>200</v>
       </c>
       <c r="S19" s="44"/>
@@ -8099,8 +9421,8 @@
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="54"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
@@ -8109,22 +9431,22 @@
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="44">
         <v>16</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="46"/>
-      <c r="R20" s="59"/>
+      <c r="R20" s="56"/>
       <c r="S20" s="44"/>
       <c r="T20" s="46"/>
       <c r="U20" s="44"/>
@@ -8136,8 +9458,8 @@
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="54"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
@@ -8146,22 +9468,22 @@
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="44">
         <v>32</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q21" s="46"/>
-      <c r="R21" s="59"/>
+      <c r="R21" s="56"/>
       <c r="S21" s="44"/>
       <c r="T21" s="46"/>
       <c r="U21" s="44"/>
@@ -8173,8 +9495,8 @@
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="54"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
@@ -8183,22 +9505,22 @@
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="44">
         <v>32</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="46"/>
-      <c r="R22" s="59"/>
+      <c r="R22" s="56"/>
       <c r="S22" s="44"/>
       <c r="T22" s="46"/>
       <c r="U22" s="44"/>
@@ -8210,8 +9532,8 @@
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="48"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="54"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
@@ -8220,35 +9542,35 @@
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="49">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="58">
         <v>64</v>
       </c>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="49">
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="58">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="49">
+      <c r="Q23" s="60"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="58">
         <v>65</v>
       </c>
-      <c r="X23" s="51"/>
+      <c r="X23" s="60"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="48"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
@@ -8257,22 +9579,22 @@
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
       <c r="K24" s="44">
         <v>64</v>
       </c>
       <c r="L24" s="45"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="55"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q24" s="46"/>
-      <c r="R24" s="59"/>
+      <c r="R24" s="56"/>
       <c r="S24" s="44"/>
       <c r="T24" s="46"/>
       <c r="U24" s="44"/>
@@ -8284,8 +9606,8 @@
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="48"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
@@ -8294,22 +9616,22 @@
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="44">
         <v>16</v>
       </c>
       <c r="L25" s="45"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="55"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q25" s="46"/>
-      <c r="R25" s="59"/>
+      <c r="R25" s="56"/>
       <c r="S25" s="44"/>
       <c r="T25" s="46"/>
       <c r="U25" s="44"/>
@@ -8321,8 +9643,8 @@
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="48"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
@@ -8331,22 +9653,22 @@
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="44">
         <v>16</v>
       </c>
       <c r="L26" s="45"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="55"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q26" s="46"/>
-      <c r="R26" s="59"/>
+      <c r="R26" s="56"/>
       <c r="S26" s="44"/>
       <c r="T26" s="46"/>
       <c r="U26" s="44"/>
@@ -8358,8 +9680,8 @@
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="48"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
@@ -8368,22 +9690,22 @@
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="44">
         <v>32</v>
       </c>
       <c r="L27" s="45"/>
       <c r="M27" s="46"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="55"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q27" s="46"/>
-      <c r="R27" s="59"/>
+      <c r="R27" s="56"/>
       <c r="S27" s="44"/>
       <c r="T27" s="46"/>
       <c r="U27" s="44"/>
@@ -8395,8 +9717,8 @@
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="48"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
@@ -8405,22 +9727,22 @@
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="44">
         <v>32</v>
       </c>
       <c r="L28" s="45"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="57"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q28" s="46"/>
-      <c r="R28" s="60"/>
+      <c r="R28" s="57"/>
       <c r="S28" s="44"/>
       <c r="T28" s="46"/>
       <c r="U28" s="44"/>
@@ -8432,22 +9754,117 @@
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="48"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="G19:H28"/>
+    <mergeCell ref="I19:J28"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:R28"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I16"/>
     <mergeCell ref="J7:K16"/>
@@ -8472,112 +9889,17 @@
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="G19:H28"/>
-    <mergeCell ref="I19:J28"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O28"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8585,10 +9907,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C04CA8-7E11-46B5-8A38-0B245AB1C139}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8784,7 +10106,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="4">
-        <v>0.88990000000000002</v>
+        <v>0.87916000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8971,7 +10293,7 @@
         <v>0.87480999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -8994,7 +10316,7 @@
         <v>0.76349999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>17</v>
       </c>
@@ -9017,7 +10339,7 @@
         <v>0.83860000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -9040,7 +10362,7 @@
         <v>0.64615</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>19</v>
       </c>
@@ -9063,7 +10385,7 @@
         <v>0.86292999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>20</v>
       </c>
@@ -9086,7 +10408,7 @@
         <v>0.78881000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>21</v>
       </c>
@@ -9109,7 +10431,7 @@
         <v>0.83396000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>22</v>
       </c>
@@ -9132,7 +10454,7 @@
         <v>0.58157999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>23</v>
       </c>
@@ -9155,7 +10477,7 @@
         <v>0.86755000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>24</v>
       </c>
@@ -9178,7 +10500,7 @@
         <v>0.77183000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>25</v>
       </c>
@@ -9201,7 +10523,7 @@
         <v>0.83860000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>26</v>
       </c>
@@ -9224,7 +10546,7 @@
         <v>0.64615</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>27</v>
       </c>
@@ -9247,7 +10569,7 @@
         <v>0.86292999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>28</v>
       </c>
@@ -9270,7 +10592,7 @@
         <v>0.78881000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>29</v>
       </c>
@@ -9293,7 +10615,7 @@
         <v>0.83396000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -9316,7 +10638,7 @@
         <v>0.77102999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -9337,6 +10659,12 @@
       </c>
       <c r="G32" s="4">
         <v>0.85841999999999996</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.68762875000000001</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.85063312499999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -9373,7 +10701,7 @@
       <c r="F35" s="61"/>
       <c r="G35" s="29">
         <f>MAX(G2:G33)</f>
-        <v>0.88990000000000002</v>
+        <v>0.87916000000000005</v>
       </c>
       <c r="H35" s="29">
         <f>INDEX(A2:A33, MATCH(MAX(G2:G33), G2:G33, 0))</f>

--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B497FCCE-64C7-4F31-BF19-1126A1747C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6139709-CCF9-4CB0-9FE1-72AAF251E7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
@@ -704,8 +704,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,11 +716,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,6 +728,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,6 +738,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -758,12 +773,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,15 +780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,7 +805,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1346,449 +1346,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
-              <a:t>mAP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NEW SKENARIO'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mAP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'NEW SKENARIO'!$G$2:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0.84499000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43691000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87112000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83652000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48063</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87916000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76636000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84499000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.61319999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83462000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.81623000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.70355999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.87480999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.76349999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.83860000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64615</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.86292999999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78881000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.83396000000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.58157999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.86755000000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.77183000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.83860000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.64615</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.86292999999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.78881000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.83396000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.77102999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.85841999999999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.70813999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E065-493F-B973-CA6A45E7CD17}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1052780351"/>
-        <c:axId val="1058205535"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1052780351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1058205535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1058205535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1052780351"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2185,7 +1743,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2516,910 +2073,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ID" sz="1800"/>
-              <a:t>Adam</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NEW SKENARIO'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mAP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>('NEW SKENARIO'!$F$2,'NEW SKENARIO'!$F$4,'NEW SKENARIO'!$F$6,'NEW SKENARIO'!$F$8,'NEW SKENARIO'!$F$10,'NEW SKENARIO'!$F$12,'NEW SKENARIO'!$F$14,'NEW SKENARIO'!$F$16,'NEW SKENARIO'!$F$18,'NEW SKENARIO'!$F$20,'NEW SKENARIO'!$F$22,'NEW SKENARIO'!$F$24,'NEW SKENARIO'!$F$26,'NEW SKENARIO'!$F$28,'NEW SKENARIO'!$F$30,'NEW SKENARIO'!$F$32)</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Adam</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Adam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('NEW SKENARIO'!$G$2,'NEW SKENARIO'!$G$4,'NEW SKENARIO'!$G$6,'NEW SKENARIO'!$G$8,'NEW SKENARIO'!$G$10,'NEW SKENARIO'!$G$12,'NEW SKENARIO'!$G$14,'NEW SKENARIO'!$G$16,'NEW SKENARIO'!$G$18,'NEW SKENARIO'!$G$20,'NEW SKENARIO'!$G$22,'NEW SKENARIO'!$G$24,'NEW SKENARIO'!$G$26,'NEW SKENARIO'!$G$28,'NEW SKENARIO'!$G$30,'NEW SKENARIO'!$G$32)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.84499000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87112000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83652000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87916000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84499000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83462000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81623000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87480999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83860000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86292999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83396000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.86755000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83860000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.86292999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.83396000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.85841999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFEC-4A4F-9F1C-90E60F4E8369}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1056596735"/>
-        <c:axId val="1056597695"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1056596735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1056597695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1056597695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1056596735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ID" sz="1800"/>
-              <a:t>RMSProp</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'NEW SKENARIO'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mAP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>('NEW SKENARIO'!$F$3,'NEW SKENARIO'!$F$5,'NEW SKENARIO'!$F$7,'NEW SKENARIO'!$F$9,'NEW SKENARIO'!$F$11,'NEW SKENARIO'!$F$13,'NEW SKENARIO'!$F$15,'NEW SKENARIO'!$F$17,'NEW SKENARIO'!$F$19,'NEW SKENARIO'!$F$21,'NEW SKENARIO'!$F$23,'NEW SKENARIO'!$F$25,'NEW SKENARIO'!$F$27,'NEW SKENARIO'!$F$29,'NEW SKENARIO'!$F$31,'NEW SKENARIO'!$F$33)</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>RMSProp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('NEW SKENARIO'!$G$33,'NEW SKENARIO'!$G$31,'NEW SKENARIO'!$G$29,'NEW SKENARIO'!$G$27,'NEW SKENARIO'!$G$25,'NEW SKENARIO'!$G$23,'NEW SKENARIO'!$G$21,'NEW SKENARIO'!$G$19,'NEW SKENARIO'!$G$17,'NEW SKENARIO'!$G$15,'NEW SKENARIO'!$G$13,'NEW SKENARIO'!$G$11,'NEW SKENARIO'!$G$9,'NEW SKENARIO'!$G$7,'NEW SKENARIO'!$G$5,'NEW SKENARIO'!$G$3)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.70813999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77102999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78881000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64615</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.77183000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58157999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78881000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.64615</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.76349999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70355999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.76719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.61319999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.76636000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48063</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.76819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.43691000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DFEC-4A4F-9F1C-90E60F4E8369}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1056596735"/>
-        <c:axId val="1056597695"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1056596735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1056597695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1056597695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.9"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1056596735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -3458,126 +2111,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4640,1512 +3173,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6192,51 +3219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>413684</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>81430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424091</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Bagan 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE7FA09-C733-A084-376B-A13AE8FD67A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561094</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>194823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>104321</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6255,79 +3246,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>577102</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>308161</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>21292</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Bagan 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F9CE11-3546-8B14-98C9-082608A2EFCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>386123</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>117181</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>36019</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Bagan 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E0C6C3-C455-7A11-B87F-6D70A930B627}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7085,24 +4004,24 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="M3" s="39" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="M3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
@@ -7174,7 +4093,7 @@
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="35">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -7219,7 +4138,7 @@
       <c r="I6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="36">
         <v>416</v>
       </c>
@@ -7252,7 +4171,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="37"/>
       <c r="M7" s="3">
         <v>172</v>
@@ -7283,7 +4202,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="37"/>
       <c r="M8" s="3">
         <v>116</v>
@@ -7314,7 +4233,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="37"/>
       <c r="M9" s="7">
         <v>143</v>
@@ -7345,7 +4264,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="37"/>
       <c r="M10" s="3">
         <v>195</v>
@@ -7378,7 +4297,7 @@
       <c r="I11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="37"/>
       <c r="M11" s="3">
         <v>67</v>
@@ -7409,7 +4328,7 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="37"/>
       <c r="M12" s="3">
         <v>115</v>
@@ -7442,7 +4361,7 @@
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="37"/>
       <c r="M13" s="3">
         <v>159</v>
@@ -7475,7 +4394,7 @@
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="38"/>
       <c r="M14" s="3">
         <v>172</v>
@@ -7494,29 +4413,21 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -7526,6 +4437,14 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7563,27 +4482,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="39"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="41" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="39"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -7631,22 +4550,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="35">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="35">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -7672,16 +4591,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -7705,16 +4624,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -7738,16 +4657,16 @@
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -7771,16 +4690,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="39"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -7804,16 +4723,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="39"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -7837,16 +4756,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -7870,16 +4789,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -7903,16 +4822,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -7936,16 +4855,16 @@
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -7960,42 +4879,42 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="39"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="41" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43"/>
-      <c r="S17" s="40" t="s">
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+      <c r="S17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40" t="s">
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="39"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
@@ -8768,6 +5687,11 @@
     <sortCondition descending="1" ref="AD19:AD28"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
@@ -8782,11 +5706,6 @@
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="J6:J15"/>
     <mergeCell ref="E4:L4"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="Z19:Z28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8891,29 +5810,29 @@
         <v>240</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="47">
+      <c r="I7" s="53"/>
+      <c r="J7" s="52">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="48"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="52">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="48"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P7" s="46"/>
-      <c r="Q7" s="47">
+      <c r="Q7" s="52">
         <v>200</v>
       </c>
-      <c r="R7" s="48"/>
+      <c r="R7" s="53"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
@@ -8940,21 +5859,21 @@
         <v>240</v>
       </c>
       <c r="G8" s="46"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="50"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P8" s="46"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="50"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
@@ -8981,21 +5900,21 @@
         <v>240</v>
       </c>
       <c r="G9" s="46"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="50"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P9" s="46"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="55"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
@@ -9022,21 +5941,21 @@
         <v>240</v>
       </c>
       <c r="G10" s="46"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
       <c r="O10" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P10" s="46"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="50"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="55"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
@@ -9063,21 +5982,21 @@
         <v>240</v>
       </c>
       <c r="G11" s="46"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P11" s="46"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="50"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
@@ -9104,21 +6023,21 @@
         <v>240</v>
       </c>
       <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P12" s="46"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
@@ -9145,21 +6064,21 @@
         <v>256</v>
       </c>
       <c r="G13" s="46"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="50"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
       <c r="O13" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P13" s="46"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
@@ -9186,21 +6105,21 @@
         <v>256</v>
       </c>
       <c r="G14" s="46"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
       <c r="O14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P14" s="46"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="55"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
@@ -9227,21 +6146,21 @@
         <v>256</v>
       </c>
       <c r="G15" s="46"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P15" s="46"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="50"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
@@ -9268,21 +6187,21 @@
         <v>256</v>
       </c>
       <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
       <c r="O16" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="46"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="52"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
@@ -9327,8 +6246,8 @@
       <c r="W17" s="45"/>
       <c r="X17" s="45"/>
       <c r="Y17" s="46"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="54"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="48"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
@@ -9376,8 +6295,8 @@
       <c r="Y18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="54"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="48"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
@@ -9386,28 +6305,28 @@
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="47">
+      <c r="H19" s="53"/>
+      <c r="I19" s="52">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="48"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="44">
         <v>16</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="46"/>
-      <c r="N19" s="47">
+      <c r="N19" s="52">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="48"/>
+      <c r="O19" s="53"/>
       <c r="P19" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q19" s="46"/>
-      <c r="R19" s="55">
+      <c r="R19" s="58">
         <v>200</v>
       </c>
       <c r="S19" s="44"/>
@@ -9421,8 +6340,8 @@
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="54"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="48"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
@@ -9431,22 +6350,22 @@
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="44">
         <v>16</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="46"/>
-      <c r="R20" s="56"/>
+      <c r="R20" s="59"/>
       <c r="S20" s="44"/>
       <c r="T20" s="46"/>
       <c r="U20" s="44"/>
@@ -9458,8 +6377,8 @@
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="54"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="48"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
@@ -9468,22 +6387,22 @@
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="44">
         <v>32</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
       <c r="P21" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q21" s="46"/>
-      <c r="R21" s="56"/>
+      <c r="R21" s="59"/>
       <c r="S21" s="44"/>
       <c r="T21" s="46"/>
       <c r="U21" s="44"/>
@@ -9495,8 +6414,8 @@
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="54"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="48"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
@@ -9505,22 +6424,22 @@
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="44">
         <v>32</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
       <c r="P22" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="46"/>
-      <c r="R22" s="56"/>
+      <c r="R22" s="59"/>
       <c r="S22" s="44"/>
       <c r="T22" s="46"/>
       <c r="U22" s="44"/>
@@ -9532,8 +6451,8 @@
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="54"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="48"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
@@ -9542,35 +6461,35 @@
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="58">
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="49">
         <v>64</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="58">
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="49">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="58">
+      <c r="Q23" s="51"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="49">
         <v>65</v>
       </c>
-      <c r="X23" s="60"/>
+      <c r="X23" s="51"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="54"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="48"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
@@ -9579,22 +6498,22 @@
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="44">
         <v>64</v>
       </c>
       <c r="L24" s="45"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
       <c r="P24" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q24" s="46"/>
-      <c r="R24" s="56"/>
+      <c r="R24" s="59"/>
       <c r="S24" s="44"/>
       <c r="T24" s="46"/>
       <c r="U24" s="44"/>
@@ -9606,8 +6525,8 @@
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="54"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="48"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
@@ -9616,22 +6535,22 @@
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="50"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="44">
         <v>16</v>
       </c>
       <c r="L25" s="45"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q25" s="46"/>
-      <c r="R25" s="56"/>
+      <c r="R25" s="59"/>
       <c r="S25" s="44"/>
       <c r="T25" s="46"/>
       <c r="U25" s="44"/>
@@ -9643,8 +6562,8 @@
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="54"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="48"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
@@ -9653,22 +6572,22 @@
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="50"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="44">
         <v>16</v>
       </c>
       <c r="L26" s="45"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q26" s="46"/>
-      <c r="R26" s="56"/>
+      <c r="R26" s="59"/>
       <c r="S26" s="44"/>
       <c r="T26" s="46"/>
       <c r="U26" s="44"/>
@@ -9680,8 +6599,8 @@
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="54"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="48"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
@@ -9690,22 +6609,22 @@
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="44">
         <v>32</v>
       </c>
       <c r="L27" s="45"/>
       <c r="M27" s="46"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
       <c r="P27" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q27" s="46"/>
-      <c r="R27" s="56"/>
+      <c r="R27" s="59"/>
       <c r="S27" s="44"/>
       <c r="T27" s="46"/>
       <c r="U27" s="44"/>
@@ -9717,8 +6636,8 @@
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="54"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="48"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
@@ -9727,22 +6646,22 @@
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="52"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="44">
         <v>32</v>
       </c>
       <c r="L28" s="45"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="52"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="57"/>
       <c r="P28" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q28" s="46"/>
-      <c r="R28" s="57"/>
+      <c r="R28" s="60"/>
       <c r="S28" s="44"/>
       <c r="T28" s="46"/>
       <c r="U28" s="44"/>
@@ -9754,60 +6673,79 @@
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="54"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I16"/>
+    <mergeCell ref="J7:K16"/>
+    <mergeCell ref="M7:N16"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R16"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="W18:X18"/>
     <mergeCell ref="Z18:AA18"/>
@@ -9832,74 +6770,55 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="W20:X20"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I16"/>
-    <mergeCell ref="J7:K16"/>
-    <mergeCell ref="M7:N16"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R16"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9907,10 +6826,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C04CA8-7E11-46B5-8A38-0B245AB1C139}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10293,7 +7212,7 @@
         <v>0.87480999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -10316,7 +7235,7 @@
         <v>0.76349999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>17</v>
       </c>
@@ -10339,7 +7258,7 @@
         <v>0.83860000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -10362,7 +7281,7 @@
         <v>0.64615</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>19</v>
       </c>
@@ -10385,7 +7304,7 @@
         <v>0.86292999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>20</v>
       </c>
@@ -10408,7 +7327,7 @@
         <v>0.78881000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>21</v>
       </c>
@@ -10431,7 +7350,7 @@
         <v>0.83396000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>22</v>
       </c>
@@ -10454,7 +7373,7 @@
         <v>0.58157999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>23</v>
       </c>
@@ -10477,7 +7396,7 @@
         <v>0.86755000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>24</v>
       </c>
@@ -10500,7 +7419,7 @@
         <v>0.77183000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>25</v>
       </c>
@@ -10523,7 +7442,7 @@
         <v>0.83860000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>26</v>
       </c>
@@ -10546,7 +7465,7 @@
         <v>0.64615</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>27</v>
       </c>
@@ -10569,7 +7488,7 @@
         <v>0.86292999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>28</v>
       </c>
@@ -10592,7 +7511,7 @@
         <v>0.78881000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>29</v>
       </c>
@@ -10615,7 +7534,7 @@
         <v>0.83396000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -10638,7 +7557,7 @@
         <v>0.77102999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -10659,12 +7578,6 @@
       </c>
       <c r="G32" s="4">
         <v>0.85841999999999996</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.68762875000000001</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0.85063312499999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">

--- a/DOKUMENT/rangkupam.xlsx
+++ b/DOKUMENT/rangkupam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\DOKUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\DOKUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6139709-CCF9-4CB0-9FE1-72AAF251E7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EDB5D8-AF96-4F8A-869B-5A07D63EC2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
@@ -704,8 +704,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,8 +716,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,9 +731,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,21 +738,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,6 +758,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,6 +771,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,7 +805,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1346,7 +1346,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="id-ID"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2073,6 +2073,823 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="id-ID"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Batch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NEW SKENARIO'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('NEW SKENARIO'!$G$32,'NEW SKENARIO'!$G$29,'NEW SKENARIO'!$G$28,'NEW SKENARIO'!$G$27,'NEW SKENARIO'!$G$21,'NEW SKENARIO'!$G$20,'NEW SKENARIO'!$G$19,'NEW SKENARIO'!$G$18,'NEW SKENARIO'!$G$16,'NEW SKENARIO'!$G$13,'NEW SKENARIO'!$G$12,'NEW SKENARIO'!$G$11,'NEW SKENARIO'!$G$5,'NEW SKENARIO'!$G$4,'NEW SKENARIO'!$G$3,'NEW SKENARIO'!$G$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.85841999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86292999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87480999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87112000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43691000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAA7-4413-ADCE-8434FF82D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>64</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NEW SKENARIO'!$A$2:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('NEW SKENARIO'!$G$6,'NEW SKENARIO'!$G$7,'NEW SKENARIO'!$G$8,'NEW SKENARIO'!$G$9,'NEW SKENARIO'!$G$10,'NEW SKENARIO'!$G$14,'NEW SKENARIO'!$G$15,'NEW SKENARIO'!$G$17,'NEW SKENARIO'!$G$22,'NEW SKENARIO'!$G$23,'NEW SKENARIO'!$G$24,'NEW SKENARIO'!$G$25,'NEW SKENARIO'!$G$26,'NEW SKENARIO'!$G$30,'NEW SKENARIO'!$G$31,'NEW SKENARIO'!$G$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.83652000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87916000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76636000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81623000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70355999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58157999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86755000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83396000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77102999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70813999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAA7-4413-ADCE-8434FF82D029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="175152863"/>
+        <c:axId val="175157183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="175152863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Nomor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175157183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175157183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>mAP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175152863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -2111,6 +2928,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3173,6 +4030,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3247,6 +4606,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479342</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152770</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177263</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Bagan 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25068C4B-6C2B-0881-C7B3-7FDD123C7E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4004,24 +5399,24 @@
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="M3" s="35" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="M3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
@@ -4093,7 +5488,7 @@
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="39">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -4138,7 +5533,7 @@
       <c r="I6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="39"/>
       <c r="K6" s="36">
         <v>416</v>
       </c>
@@ -4171,7 +5566,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="37"/>
       <c r="M7" s="3">
         <v>172</v>
@@ -4202,7 +5597,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="37"/>
       <c r="M8" s="3">
         <v>116</v>
@@ -4233,7 +5628,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="37"/>
       <c r="M9" s="7">
         <v>143</v>
@@ -4264,7 +5659,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="38"/>
-      <c r="J10" s="35"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="37"/>
       <c r="M10" s="3">
         <v>195</v>
@@ -4297,7 +5692,7 @@
       <c r="I11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="37"/>
       <c r="M11" s="3">
         <v>67</v>
@@ -4328,7 +5723,7 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="37"/>
       <c r="M12" s="3">
         <v>115</v>
@@ -4361,7 +5756,7 @@
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="37"/>
       <c r="M13" s="3">
         <v>159</v>
@@ -4394,7 +5789,7 @@
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="38"/>
       <c r="M14" s="3">
         <v>172</v>
@@ -4413,21 +5808,29 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -4437,14 +5840,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4482,27 +5877,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="35"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="40" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="35"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
@@ -4550,22 +5945,22 @@
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="39">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="39">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="39">
         <v>200</v>
       </c>
       <c r="M6" s="3">
@@ -4591,16 +5986,16 @@
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="35"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="3">
         <v>199</v>
       </c>
@@ -4624,16 +6019,16 @@
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="35"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="39"/>
       <c r="M8" s="3">
         <v>103</v>
       </c>
@@ -4657,16 +6052,16 @@
       <c r="F9" s="4">
         <v>240</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="3">
         <v>150</v>
       </c>
@@ -4690,16 +6085,16 @@
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="3">
         <v>199</v>
       </c>
@@ -4723,16 +6118,16 @@
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="39"/>
       <c r="K11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="3">
         <v>114</v>
       </c>
@@ -4756,16 +6151,16 @@
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="39"/>
       <c r="M12" s="3">
         <v>83</v>
       </c>
@@ -4789,16 +6184,16 @@
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="39"/>
       <c r="K13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="39"/>
       <c r="M13" s="3">
         <v>199</v>
       </c>
@@ -4822,16 +6217,16 @@
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="3">
         <v>103</v>
       </c>
@@ -4855,16 +6250,16 @@
       <c r="F15" s="4">
         <v>256</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="4">
         <v>32</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="39"/>
       <c r="M15" s="3">
         <v>130</v>
       </c>
@@ -4879,42 +6274,42 @@
       </c>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="35"/>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="40" t="s">
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="42"/>
-      <c r="S17" s="43" t="s">
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="S17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43" t="s">
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="35"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5687,11 +7082,6 @@
     <sortCondition descending="1" ref="AD19:AD28"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
@@ -5706,6 +7096,11 @@
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="J6:J15"/>
     <mergeCell ref="E4:L4"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="X19:X28"/>
+    <mergeCell ref="Z19:Z28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5810,29 +7205,29 @@
         <v>240</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="52">
+      <c r="I7" s="48"/>
+      <c r="J7" s="47">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="20">
         <v>16</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N7" s="53"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P7" s="46"/>
-      <c r="Q7" s="52">
+      <c r="Q7" s="47">
         <v>200</v>
       </c>
-      <c r="R7" s="53"/>
+      <c r="R7" s="48"/>
       <c r="S7" s="20">
         <v>83</v>
       </c>
@@ -5859,21 +7254,21 @@
         <v>240</v>
       </c>
       <c r="G8" s="46"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="20">
         <v>16</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="N8" s="55"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P8" s="46"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="55"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
       <c r="S8" s="20">
         <v>199</v>
       </c>
@@ -5900,21 +7295,21 @@
         <v>240</v>
       </c>
       <c r="G9" s="46"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="20">
         <v>32</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P9" s="46"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
       <c r="S9" s="20">
         <v>103</v>
       </c>
@@ -5941,21 +7336,21 @@
         <v>240</v>
       </c>
       <c r="G10" s="46"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="20">
         <v>32</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="55"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P10" s="46"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="55"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
       <c r="S10" s="20">
         <v>150</v>
       </c>
@@ -5982,21 +7377,21 @@
         <v>240</v>
       </c>
       <c r="G11" s="46"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="20">
         <v>64</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P11" s="46"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="50"/>
       <c r="S11" s="20">
         <v>199</v>
       </c>
@@ -6023,21 +7418,21 @@
         <v>240</v>
       </c>
       <c r="G12" s="46"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="20">
         <v>64</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P12" s="46"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
       <c r="S12" s="20">
         <v>114</v>
       </c>
@@ -6064,21 +7459,21 @@
         <v>256</v>
       </c>
       <c r="G13" s="46"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="20">
         <v>16</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P13" s="46"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
       <c r="S13" s="20">
         <v>83</v>
       </c>
@@ -6105,21 +7500,21 @@
         <v>256</v>
       </c>
       <c r="G14" s="46"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="20">
         <v>16</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P14" s="46"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="20">
         <v>199</v>
       </c>
@@ -6146,21 +7541,21 @@
         <v>256</v>
       </c>
       <c r="G15" s="46"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="20">
         <v>32</v>
       </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="P15" s="46"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
       <c r="S15" s="20">
         <v>103</v>
       </c>
@@ -6187,21 +7582,21 @@
         <v>256</v>
       </c>
       <c r="G16" s="46"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="20">
         <v>32</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
       <c r="O16" s="44" t="s">
         <v>47</v>
       </c>
       <c r="P16" s="46"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="57"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="20">
         <v>130</v>
       </c>
@@ -6246,8 +7641,8 @@
       <c r="W17" s="45"/>
       <c r="X17" s="45"/>
       <c r="Y17" s="46"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="48"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="54"/>
     </row>
     <row r="18" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="19" t="s">
@@ -6295,8 +7690,8 @@
       <c r="Y18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="48"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="54"/>
     </row>
     <row r="19" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="22" t="s">
@@ -6305,28 +7700,28 @@
       <c r="F19" s="20">
         <v>240</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="52">
+      <c r="H19" s="48"/>
+      <c r="I19" s="47">
         <v>1E-4</v>
       </c>
-      <c r="J19" s="53"/>
+      <c r="J19" s="48"/>
       <c r="K19" s="44">
         <v>16</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="46"/>
-      <c r="N19" s="52">
+      <c r="N19" s="47">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O19" s="53"/>
+      <c r="O19" s="48"/>
       <c r="P19" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q19" s="46"/>
-      <c r="R19" s="58">
+      <c r="R19" s="55">
         <v>200</v>
       </c>
       <c r="S19" s="44"/>
@@ -6340,8 +7735,8 @@
       <c r="Y19" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="54"/>
     </row>
     <row r="20" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="22" t="s">
@@ -6350,22 +7745,22 @@
       <c r="F20" s="20">
         <v>240</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
       <c r="K20" s="44">
         <v>16</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="46"/>
-      <c r="R20" s="59"/>
+      <c r="R20" s="56"/>
       <c r="S20" s="44"/>
       <c r="T20" s="46"/>
       <c r="U20" s="44"/>
@@ -6377,8 +7772,8 @@
       <c r="Y20" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="54"/>
     </row>
     <row r="21" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="22" t="s">
@@ -6387,22 +7782,22 @@
       <c r="F21" s="20">
         <v>240</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="44">
         <v>32</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q21" s="46"/>
-      <c r="R21" s="59"/>
+      <c r="R21" s="56"/>
       <c r="S21" s="44"/>
       <c r="T21" s="46"/>
       <c r="U21" s="44"/>
@@ -6414,8 +7809,8 @@
       <c r="Y21" s="20">
         <v>0.88941999999999999</v>
       </c>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="54"/>
     </row>
     <row r="22" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="22" t="s">
@@ -6424,22 +7819,22 @@
       <c r="F22" s="20">
         <v>240</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
       <c r="K22" s="44">
         <v>32</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="46"/>
-      <c r="R22" s="59"/>
+      <c r="R22" s="56"/>
       <c r="S22" s="44"/>
       <c r="T22" s="46"/>
       <c r="U22" s="44"/>
@@ -6451,8 +7846,8 @@
       <c r="Y22" s="20">
         <v>0.88482000000000005</v>
       </c>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="48"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="54"/>
     </row>
     <row r="23" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23" t="s">
@@ -6461,35 +7856,35 @@
       <c r="F23" s="24">
         <v>240</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="49">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="58">
         <v>64</v>
       </c>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="49">
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="58">
         <v>0.93700000000000006</v>
       </c>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="49">
+      <c r="Q23" s="60"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="58">
         <v>65</v>
       </c>
-      <c r="X23" s="51"/>
+      <c r="X23" s="60"/>
       <c r="Y23" s="24">
         <v>0.88971</v>
       </c>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="48"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
     </row>
     <row r="24" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="22" t="s">
@@ -6498,22 +7893,22 @@
       <c r="F24" s="20">
         <v>256</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
       <c r="K24" s="44">
         <v>64</v>
       </c>
       <c r="L24" s="45"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="55"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
       <c r="P24" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q24" s="46"/>
-      <c r="R24" s="59"/>
+      <c r="R24" s="56"/>
       <c r="S24" s="44"/>
       <c r="T24" s="46"/>
       <c r="U24" s="44"/>
@@ -6525,8 +7920,8 @@
       <c r="Y24" s="20">
         <v>0.88748000000000005</v>
       </c>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="48"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
     </row>
     <row r="25" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
@@ -6535,22 +7930,22 @@
       <c r="F25" s="20">
         <v>256</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="44">
         <v>16</v>
       </c>
       <c r="L25" s="45"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="55"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q25" s="46"/>
-      <c r="R25" s="59"/>
+      <c r="R25" s="56"/>
       <c r="S25" s="44"/>
       <c r="T25" s="46"/>
       <c r="U25" s="44"/>
@@ -6562,8 +7957,8 @@
       <c r="Y25" s="20">
         <v>0.87990000000000002</v>
       </c>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="48"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
     </row>
     <row r="26" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
@@ -6572,22 +7967,22 @@
       <c r="F26" s="20">
         <v>256</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="44">
         <v>16</v>
       </c>
       <c r="L26" s="45"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="55"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q26" s="46"/>
-      <c r="R26" s="59"/>
+      <c r="R26" s="56"/>
       <c r="S26" s="44"/>
       <c r="T26" s="46"/>
       <c r="U26" s="44"/>
@@ -6599,8 +7994,8 @@
       <c r="Y26" s="20">
         <v>0.88602999999999998</v>
       </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="48"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
     </row>
     <row r="27" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="22" t="s">
@@ -6609,22 +8004,22 @@
       <c r="F27" s="20">
         <v>256</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="44">
         <v>32</v>
       </c>
       <c r="L27" s="45"/>
       <c r="M27" s="46"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="55"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="44">
         <v>0.93700000000000006</v>
       </c>
       <c r="Q27" s="46"/>
-      <c r="R27" s="59"/>
+      <c r="R27" s="56"/>
       <c r="S27" s="44"/>
       <c r="T27" s="46"/>
       <c r="U27" s="44"/>
@@ -6636,8 +8031,8 @@
       <c r="Y27" s="20">
         <v>0.87646000000000002</v>
       </c>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="48"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
     </row>
     <row r="28" spans="5:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="22" t="s">
@@ -6646,22 +8041,22 @@
       <c r="F28" s="20">
         <v>256</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="57"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="44">
         <v>32</v>
       </c>
       <c r="L28" s="45"/>
       <c r="M28" s="46"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="57"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="44" t="s">
         <v>47</v>
       </c>
       <c r="Q28" s="46"/>
-      <c r="R28" s="60"/>
+      <c r="R28" s="57"/>
       <c r="S28" s="44"/>
       <c r="T28" s="46"/>
       <c r="U28" s="44"/>
@@ -6673,22 +8068,117 @@
       <c r="Y28" s="20">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="48"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="G19:H28"/>
+    <mergeCell ref="I19:J28"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:R28"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="E17:R17"/>
+    <mergeCell ref="S17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Z12"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I16"/>
     <mergeCell ref="J7:K16"/>
@@ -6713,112 +8203,17 @@
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="E17:R17"/>
-    <mergeCell ref="S17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="G19:H28"/>
-    <mergeCell ref="I19:J28"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O28"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="S5:AA5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Z6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6828,8 +8223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C04CA8-7E11-46B5-8A38-0B245AB1C139}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
